--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -418,16 +418,16 @@
         <v>0.2655322965807301</v>
       </c>
       <c r="D2">
-        <v>0.05035142123839931</v>
+        <v>0.05035142123838909</v>
       </c>
       <c r="E2">
-        <v>0.2932574799731782</v>
+        <v>0.2932574799731427</v>
       </c>
       <c r="F2">
-        <v>3.063928728587825</v>
+        <v>3.063928728587882</v>
       </c>
       <c r="G2">
-        <v>2.367536151318902</v>
+        <v>2.367536151318973</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0.2287021710456365</v>
       </c>
       <c r="J2">
-        <v>23.26164511757787</v>
+        <v>23.26164511757804</v>
       </c>
       <c r="K2">
-        <v>0.1117482500496578</v>
+        <v>0.111748250049672</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2222359789525399</v>
+        <v>0.2222359789523125</v>
       </c>
       <c r="D3">
-        <v>0.03131133492934879</v>
+        <v>0.03131133492924176</v>
       </c>
       <c r="E3">
-        <v>0.2464419278836019</v>
+        <v>0.2464419278835877</v>
       </c>
       <c r="F3">
         <v>2.412059117587674</v>
       </c>
       <c r="G3">
-        <v>1.840092038293037</v>
+        <v>1.840092038293022</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1876784746571971</v>
+        <v>0.1876784746571829</v>
       </c>
       <c r="J3">
         <v>19.75348862675855</v>
       </c>
       <c r="K3">
-        <v>0.09407912919040129</v>
+        <v>0.09407912919039063</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1976341348490109</v>
+        <v>0.197634134848812</v>
       </c>
       <c r="D4">
-        <v>0.02232785389994163</v>
+        <v>0.02232785389994263</v>
       </c>
       <c r="E4">
-        <v>0.2197399193754563</v>
+        <v>0.2197399193754492</v>
       </c>
       <c r="F4">
-        <v>2.074015247381681</v>
+        <v>2.074015247381652</v>
       </c>
       <c r="G4">
-        <v>1.569537588264069</v>
+        <v>1.569537588264026</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1651022732754264</v>
+        <v>0.1651022732754086</v>
       </c>
       <c r="J4">
-        <v>17.70385553293858</v>
+        <v>17.70385553293852</v>
       </c>
       <c r="K4">
         <v>0.08398367471714607</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.187986609606142</v>
+        <v>0.1879866096063409</v>
       </c>
       <c r="D5">
-        <v>0.01917927087612981</v>
+        <v>0.01917927087624405</v>
       </c>
       <c r="E5">
-        <v>0.2092475382243748</v>
+        <v>0.2092475382243819</v>
       </c>
       <c r="F5">
-        <v>1.948224807557324</v>
+        <v>1.948224807557281</v>
       </c>
       <c r="G5">
-        <v>1.469527590491197</v>
+        <v>1.469527590491168</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1564005493742791</v>
+        <v>0.1564005493742826</v>
       </c>
       <c r="J5">
-        <v>16.8881947107177</v>
+        <v>16.88819471071764</v>
       </c>
       <c r="K5">
         <v>0.08001303061379161</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1864046159740838</v>
+        <v>0.1864046159741832</v>
       </c>
       <c r="D6">
-        <v>0.01868345987996478</v>
+        <v>0.01868345987986131</v>
       </c>
       <c r="E6">
-        <v>0.207525819786774</v>
+        <v>0.2075258197867527</v>
       </c>
       <c r="F6">
         <v>1.92797360525033</v>
       </c>
       <c r="G6">
-        <v>1.453465443653528</v>
+        <v>1.453465443653513</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1549819949732694</v>
+        <v>0.1549819949732836</v>
       </c>
       <c r="J6">
-        <v>16.75377842573164</v>
+        <v>16.7537784257317</v>
       </c>
       <c r="K6">
-        <v>0.07936127313584151</v>
+        <v>0.07936127313589481</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1975026277446119</v>
+        <v>0.1975026277448109</v>
       </c>
       <c r="D7">
-        <v>0.02228350037365368</v>
+        <v>0.02228350037354809</v>
       </c>
       <c r="E7">
-        <v>0.219596978472957</v>
+        <v>0.2195969784729783</v>
       </c>
       <c r="F7">
-        <v>2.072274378663408</v>
+        <v>2.072274378663423</v>
       </c>
       <c r="G7">
         <v>1.568150805746953</v>
@@ -626,10 +626,10 @@
         <v>0.1649830754193111</v>
       </c>
       <c r="J7">
-        <v>17.69278336601008</v>
+        <v>17.69278336601019</v>
       </c>
       <c r="K7">
-        <v>0.08392959574121406</v>
+        <v>0.08392959574123182</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2501063452389758</v>
+        <v>0.2501063452389474</v>
       </c>
       <c r="D8">
-        <v>0.04310300710839066</v>
+        <v>0.04310300710828763</v>
       </c>
       <c r="E8">
-        <v>0.2766024314889179</v>
+        <v>0.2766024314889322</v>
       </c>
       <c r="F8">
-        <v>2.823616161482008</v>
+        <v>2.823616161481937</v>
       </c>
       <c r="G8">
-        <v>2.172344587876111</v>
+        <v>2.172344587876083</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2139012363241228</v>
+        <v>0.2139012363241264</v>
       </c>
       <c r="J8">
-        <v>22.02563797805851</v>
+        <v>22.0256379780584</v>
       </c>
       <c r="K8">
-        <v>0.105466647496538</v>
+        <v>0.1054666474965309</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3779003749835965</v>
+        <v>0.3779003749831702</v>
       </c>
       <c r="D9">
-        <v>0.1182867848323816</v>
+        <v>0.11828678483226</v>
       </c>
       <c r="E9">
-        <v>0.413835299526248</v>
+        <v>0.4138352995263048</v>
       </c>
       <c r="F9">
-        <v>5.067000760875374</v>
+        <v>5.067000760875544</v>
       </c>
       <c r="G9">
-        <v>4.017959270742267</v>
+        <v>4.017959270742409</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3424752728038882</v>
+        <v>0.3424752728039024</v>
       </c>
       <c r="J9">
-        <v>31.83421754955964</v>
+        <v>31.83421754955987</v>
       </c>
       <c r="K9">
-        <v>0.1570936395706255</v>
+        <v>0.1570936395706148</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5149485364183022</v>
+        <v>0.5149485364187854</v>
       </c>
       <c r="D10">
-        <v>0.2370001048940207</v>
+        <v>0.2370001048939798</v>
       </c>
       <c r="E10">
-        <v>0.5594053607679328</v>
+        <v>0.5594053607679541</v>
       </c>
       <c r="F10">
-        <v>8.078593147645989</v>
+        <v>8.078593147645961</v>
       </c>
       <c r="G10">
         <v>6.547940799977653</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4953876625145313</v>
+        <v>0.4953876625145455</v>
       </c>
       <c r="J10">
-        <v>41.31741516840668</v>
+        <v>41.31741516840646</v>
       </c>
       <c r="K10">
-        <v>0.2115673378657874</v>
+        <v>0.2115673378658158</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.613952343769995</v>
+        <v>0.6139523437698529</v>
       </c>
       <c r="D11">
-        <v>0.34799528558605</v>
+        <v>0.3479952855860624</v>
       </c>
       <c r="E11">
         <v>0.6638094755869588</v>
       </c>
       <c r="F11">
-        <v>10.63364612712235</v>
+        <v>10.63364612712203</v>
       </c>
       <c r="G11">
-        <v>8.722584221097065</v>
+        <v>8.722584221096838</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6160986961035775</v>
+        <v>0.6160986961035846</v>
       </c>
       <c r="J11">
-        <v>47.49731785442879</v>
+        <v>47.49731785442827</v>
       </c>
       <c r="K11">
-        <v>0.2504919993299417</v>
+        <v>0.2504919993299772</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6729912329708441</v>
+        <v>0.6729912329704462</v>
       </c>
       <c r="D12">
-        <v>0.4247115101433945</v>
+        <v>0.4247115101434833</v>
       </c>
       <c r="E12">
-        <v>0.7258869040945015</v>
+        <v>0.7258869040944873</v>
       </c>
       <c r="F12">
-        <v>12.30970783578218</v>
+        <v>12.30970783578249</v>
       </c>
       <c r="G12">
-        <v>10.15934638403081</v>
+        <v>10.1593463840311</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6925532806797676</v>
+        <v>0.6925532806797605</v>
       </c>
       <c r="J12">
-        <v>50.89860503109918</v>
+        <v>50.89860503109975</v>
       </c>
       <c r="K12">
-        <v>0.2735978583069674</v>
+        <v>0.2735978583069354</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0.6579565765913458</v>
       </c>
       <c r="D13">
-        <v>0.4044097542848384</v>
+        <v>0.4044097542848721</v>
       </c>
       <c r="E13">
-        <v>0.710085890165054</v>
+        <v>0.7100858901650824</v>
       </c>
       <c r="F13">
-        <v>11.87199670807215</v>
+        <v>11.87199670807226</v>
       </c>
       <c r="G13">
-        <v>9.783442950233933</v>
+        <v>9.78344295023399</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6727490712212187</v>
+        <v>0.6727490712212614</v>
       </c>
       <c r="J13">
-        <v>50.05340529410398</v>
+        <v>50.05340529410427</v>
       </c>
       <c r="K13">
-        <v>0.267718361471335</v>
+        <v>0.2677183614713314</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.618017862896437</v>
+        <v>0.6180178628964086</v>
       </c>
       <c r="D14">
-        <v>0.3530214284104449</v>
+        <v>0.3530214284104538</v>
       </c>
       <c r="E14">
-        <v>0.6680873205896987</v>
+        <v>0.6680873205897271</v>
       </c>
       <c r="F14">
-        <v>10.74539284449767</v>
+        <v>10.74539284449818</v>
       </c>
       <c r="G14">
-        <v>8.81814704051834</v>
+        <v>8.81814704051871</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0.6212523018365985</v>
       </c>
       <c r="J14">
-        <v>47.73853055566434</v>
+        <v>47.73853055566497</v>
       </c>
       <c r="K14">
-        <v>0.2520849643117771</v>
+        <v>0.2520849643117877</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5977504228522719</v>
+        <v>0.5977504228525277</v>
       </c>
       <c r="D15">
-        <v>0.3283370842401325</v>
+        <v>0.3283370842404043</v>
       </c>
       <c r="E15">
         <v>0.6467553689476588</v>
       </c>
       <c r="F15">
-        <v>10.19368085508728</v>
+        <v>10.19368085508719</v>
       </c>
       <c r="G15">
-        <v>8.346678460390592</v>
+        <v>8.346678460390507</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.595719137630276</v>
+        <v>0.5957191376302404</v>
       </c>
       <c r="J15">
-        <v>46.52598599548111</v>
+        <v>46.52598599548116</v>
       </c>
       <c r="K15">
-        <v>0.2441401782009365</v>
+        <v>0.2441401782009507</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5097752671183571</v>
+        <v>0.5097752671184708</v>
       </c>
       <c r="D16">
-        <v>0.2317921724340835</v>
+        <v>0.2317921724339911</v>
       </c>
       <c r="E16">
-        <v>0.5539350978621016</v>
+        <v>0.5539350978621158</v>
       </c>
       <c r="F16">
-        <v>7.953829611780435</v>
+        <v>7.953829611780407</v>
       </c>
       <c r="G16">
-        <v>6.44232136008371</v>
+        <v>6.442321360083653</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4893243595552832</v>
+        <v>0.489324359555269</v>
       </c>
       <c r="J16">
         <v>40.97873362948411</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4683006930564204</v>
+        <v>0.4683006930564488</v>
       </c>
       <c r="D17">
-        <v>0.1921209360689478</v>
+        <v>0.1921209360688625</v>
       </c>
       <c r="E17">
-        <v>0.5100151959423229</v>
+        <v>0.5100151959422945</v>
       </c>
       <c r="F17">
-        <v>6.984925966917729</v>
+        <v>6.984925966917871</v>
       </c>
       <c r="G17">
-        <v>5.624209345998807</v>
+        <v>5.624209345998906</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4415556082878709</v>
+        <v>0.4415556082879064</v>
       </c>
       <c r="J17">
-        <v>38.20836928456634</v>
+        <v>38.20836928456663</v>
       </c>
       <c r="K17">
-        <v>0.193114656376995</v>
+        <v>0.1931146563769879</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4469405944208518</v>
+        <v>0.4469405944207949</v>
       </c>
       <c r="D18">
-        <v>0.1731216298758573</v>
+        <v>0.1731216298758484</v>
       </c>
       <c r="E18">
-        <v>0.487347993758128</v>
+        <v>0.4873479937581209</v>
       </c>
       <c r="F18">
-        <v>6.507687042245919</v>
+        <v>6.507687042246118</v>
       </c>
       <c r="G18">
-        <v>5.222743942151496</v>
+        <v>5.222743942151624</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0.4175284299107673</v>
       </c>
       <c r="J18">
-        <v>36.74364671325282</v>
+        <v>36.74364671325316</v>
       </c>
       <c r="K18">
-        <v>0.1846362351284441</v>
+        <v>0.1846362351284618</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4400391117170841</v>
+        <v>0.440039111717482</v>
       </c>
       <c r="D19">
-        <v>0.1671894625523986</v>
+        <v>0.1671894625525949</v>
       </c>
       <c r="E19">
-        <v>0.4800168095146731</v>
+        <v>0.4800168095147015</v>
       </c>
       <c r="F19">
-        <v>6.356660058799065</v>
+        <v>6.356660058799179</v>
       </c>
       <c r="G19">
-        <v>5.095921733508206</v>
+        <v>5.095921733508277</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4098475046546355</v>
+        <v>0.4098475046546497</v>
       </c>
       <c r="J19">
-        <v>36.2649116089151</v>
+        <v>36.26491160891493</v>
       </c>
       <c r="K19">
-        <v>0.181892707113402</v>
+        <v>0.1818927071133949</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4724309253408876</v>
+        <v>0.4724309253408592</v>
       </c>
       <c r="D20">
         <v>0.1959065350091862</v>
       </c>
       <c r="E20">
-        <v>0.5143942995120838</v>
+        <v>0.5143942995121051</v>
       </c>
       <c r="F20">
-        <v>7.078914525526045</v>
+        <v>7.078914525526272</v>
       </c>
       <c r="G20">
-        <v>5.703397196374837</v>
+        <v>5.703397196375064</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4462462532202878</v>
+        <v>0.4462462532202949</v>
       </c>
       <c r="J20">
-        <v>38.48862606149652</v>
+        <v>38.48862606149657</v>
       </c>
       <c r="K20">
-        <v>0.1947518860343678</v>
+        <v>0.1947518860343962</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,28 +1140,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D21">
-        <v>0.3663863042174285</v>
+        <v>0.366386304217686</v>
       </c>
       <c r="E21">
-        <v>0.6793074850642213</v>
+        <v>0.6793074850642427</v>
       </c>
       <c r="F21">
-        <v>11.04112918896249</v>
+        <v>11.04112918896234</v>
       </c>
       <c r="G21">
-        <v>9.071217335642388</v>
+        <v>9.071217335642302</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6348493837389313</v>
+        <v>0.6348493837389384</v>
       </c>
       <c r="J21">
-        <v>48.36649198089691</v>
+        <v>48.36649198089668</v>
       </c>
       <c r="K21">
-        <v>0.2562625095119166</v>
+        <v>0.2562625095118598</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D22">
-        <v>0.3663863042174285</v>
+        <v>0.366386304217686</v>
       </c>
       <c r="E22">
-        <v>0.6793074850642213</v>
+        <v>0.6793074850642427</v>
       </c>
       <c r="F22">
-        <v>11.04112918896249</v>
+        <v>11.04112918896234</v>
       </c>
       <c r="G22">
-        <v>9.071217335642388</v>
+        <v>9.071217335642302</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6348493837389313</v>
+        <v>0.6348493837389384</v>
       </c>
       <c r="J22">
-        <v>48.36649198089691</v>
+        <v>48.36649198089668</v>
       </c>
       <c r="K22">
-        <v>0.2562625095119166</v>
+        <v>0.2562625095118598</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1216,28 +1216,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D23">
-        <v>0.3663863042174285</v>
+        <v>0.366386304217686</v>
       </c>
       <c r="E23">
-        <v>0.6793074850642213</v>
+        <v>0.6793074850642427</v>
       </c>
       <c r="F23">
-        <v>11.04112918896249</v>
+        <v>11.04112918896234</v>
       </c>
       <c r="G23">
-        <v>9.071217335642388</v>
+        <v>9.071217335642302</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6348493837389313</v>
+        <v>0.6348493837389384</v>
       </c>
       <c r="J23">
-        <v>48.36649198089691</v>
+        <v>48.36649198089668</v>
       </c>
       <c r="K23">
-        <v>0.2562625095119166</v>
+        <v>0.2562625095118598</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D24">
-        <v>0.3663863042174285</v>
+        <v>0.366386304217686</v>
       </c>
       <c r="E24">
-        <v>0.6793074850642213</v>
+        <v>0.6793074850642427</v>
       </c>
       <c r="F24">
-        <v>11.04112918896249</v>
+        <v>11.04112918896234</v>
       </c>
       <c r="G24">
-        <v>9.071217335642388</v>
+        <v>9.071217335642302</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6348493837389313</v>
+        <v>0.6348493837389384</v>
       </c>
       <c r="J24">
-        <v>48.36649198089691</v>
+        <v>48.36649198089668</v>
       </c>
       <c r="K24">
-        <v>0.2562625095119166</v>
+        <v>0.2562625095118598</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1292,28 +1292,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D25">
-        <v>0.3663863042174285</v>
+        <v>0.366386304217686</v>
       </c>
       <c r="E25">
-        <v>0.6793074850642213</v>
+        <v>0.6793074850642427</v>
       </c>
       <c r="F25">
-        <v>11.04112918896249</v>
+        <v>11.04112918896234</v>
       </c>
       <c r="G25">
-        <v>9.071217335642388</v>
+        <v>9.071217335642302</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6348493837389313</v>
+        <v>0.6348493837389384</v>
       </c>
       <c r="J25">
-        <v>48.36649198089691</v>
+        <v>48.36649198089668</v>
       </c>
       <c r="K25">
-        <v>0.2562625095119166</v>
+        <v>0.2562625095118598</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -418,16 +418,16 @@
         <v>0.2655322965807301</v>
       </c>
       <c r="D2">
-        <v>0.05035142123838909</v>
+        <v>0.05035142123839931</v>
       </c>
       <c r="E2">
-        <v>0.2932574799731427</v>
+        <v>0.2932574799731782</v>
       </c>
       <c r="F2">
-        <v>3.063928728587882</v>
+        <v>3.063928728587825</v>
       </c>
       <c r="G2">
-        <v>2.367536151318973</v>
+        <v>2.367536151318902</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0.2287021710456365</v>
       </c>
       <c r="J2">
-        <v>23.26164511757804</v>
+        <v>23.26164511757787</v>
       </c>
       <c r="K2">
-        <v>0.111748250049672</v>
+        <v>0.1117482500496578</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2222359789523125</v>
+        <v>0.2222359789525399</v>
       </c>
       <c r="D3">
-        <v>0.03131133492924176</v>
+        <v>0.03131133492934879</v>
       </c>
       <c r="E3">
-        <v>0.2464419278835877</v>
+        <v>0.2464419278836019</v>
       </c>
       <c r="F3">
         <v>2.412059117587674</v>
       </c>
       <c r="G3">
-        <v>1.840092038293022</v>
+        <v>1.840092038293037</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1876784746571829</v>
+        <v>0.1876784746571971</v>
       </c>
       <c r="J3">
         <v>19.75348862675855</v>
       </c>
       <c r="K3">
-        <v>0.09407912919039063</v>
+        <v>0.09407912919040129</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.197634134848812</v>
+        <v>0.1976341348490109</v>
       </c>
       <c r="D4">
-        <v>0.02232785389994263</v>
+        <v>0.02232785389994163</v>
       </c>
       <c r="E4">
-        <v>0.2197399193754492</v>
+        <v>0.2197399193754563</v>
       </c>
       <c r="F4">
-        <v>2.074015247381652</v>
+        <v>2.074015247381681</v>
       </c>
       <c r="G4">
-        <v>1.569537588264026</v>
+        <v>1.569537588264069</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1651022732754086</v>
+        <v>0.1651022732754264</v>
       </c>
       <c r="J4">
-        <v>17.70385553293852</v>
+        <v>17.70385553293858</v>
       </c>
       <c r="K4">
         <v>0.08398367471714607</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1879866096063409</v>
+        <v>0.187986609606142</v>
       </c>
       <c r="D5">
-        <v>0.01917927087624405</v>
+        <v>0.01917927087612981</v>
       </c>
       <c r="E5">
-        <v>0.2092475382243819</v>
+        <v>0.2092475382243748</v>
       </c>
       <c r="F5">
-        <v>1.948224807557281</v>
+        <v>1.948224807557324</v>
       </c>
       <c r="G5">
-        <v>1.469527590491168</v>
+        <v>1.469527590491197</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1564005493742826</v>
+        <v>0.1564005493742791</v>
       </c>
       <c r="J5">
-        <v>16.88819471071764</v>
+        <v>16.8881947107177</v>
       </c>
       <c r="K5">
         <v>0.08001303061379161</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1864046159741832</v>
+        <v>0.1864046159740838</v>
       </c>
       <c r="D6">
-        <v>0.01868345987986131</v>
+        <v>0.01868345987996478</v>
       </c>
       <c r="E6">
-        <v>0.2075258197867527</v>
+        <v>0.207525819786774</v>
       </c>
       <c r="F6">
         <v>1.92797360525033</v>
       </c>
       <c r="G6">
-        <v>1.453465443653513</v>
+        <v>1.453465443653528</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1549819949732836</v>
+        <v>0.1549819949732694</v>
       </c>
       <c r="J6">
-        <v>16.7537784257317</v>
+        <v>16.75377842573164</v>
       </c>
       <c r="K6">
-        <v>0.07936127313589481</v>
+        <v>0.07936127313584151</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1975026277448109</v>
+        <v>0.1975026277446119</v>
       </c>
       <c r="D7">
-        <v>0.02228350037354809</v>
+        <v>0.02228350037365368</v>
       </c>
       <c r="E7">
-        <v>0.2195969784729783</v>
+        <v>0.219596978472957</v>
       </c>
       <c r="F7">
-        <v>2.072274378663423</v>
+        <v>2.072274378663408</v>
       </c>
       <c r="G7">
         <v>1.568150805746953</v>
@@ -626,10 +626,10 @@
         <v>0.1649830754193111</v>
       </c>
       <c r="J7">
-        <v>17.69278336601019</v>
+        <v>17.69278336601008</v>
       </c>
       <c r="K7">
-        <v>0.08392959574123182</v>
+        <v>0.08392959574121406</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2501063452389474</v>
+        <v>0.2501063452389758</v>
       </c>
       <c r="D8">
-        <v>0.04310300710828763</v>
+        <v>0.04310300710839066</v>
       </c>
       <c r="E8">
-        <v>0.2766024314889322</v>
+        <v>0.2766024314889179</v>
       </c>
       <c r="F8">
-        <v>2.823616161481937</v>
+        <v>2.823616161482008</v>
       </c>
       <c r="G8">
-        <v>2.172344587876083</v>
+        <v>2.172344587876111</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2139012363241264</v>
+        <v>0.2139012363241228</v>
       </c>
       <c r="J8">
-        <v>22.0256379780584</v>
+        <v>22.02563797805851</v>
       </c>
       <c r="K8">
-        <v>0.1054666474965309</v>
+        <v>0.105466647496538</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3779003749831702</v>
+        <v>0.3779003749835965</v>
       </c>
       <c r="D9">
-        <v>0.11828678483226</v>
+        <v>0.1182867848323816</v>
       </c>
       <c r="E9">
-        <v>0.4138352995263048</v>
+        <v>0.413835299526248</v>
       </c>
       <c r="F9">
-        <v>5.067000760875544</v>
+        <v>5.067000760875374</v>
       </c>
       <c r="G9">
-        <v>4.017959270742409</v>
+        <v>4.017959270742267</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3424752728039024</v>
+        <v>0.3424752728038882</v>
       </c>
       <c r="J9">
-        <v>31.83421754955987</v>
+        <v>31.83421754955964</v>
       </c>
       <c r="K9">
-        <v>0.1570936395706148</v>
+        <v>0.1570936395706255</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5149485364187854</v>
+        <v>0.5149485364183022</v>
       </c>
       <c r="D10">
-        <v>0.2370001048939798</v>
+        <v>0.2370001048940207</v>
       </c>
       <c r="E10">
-        <v>0.5594053607679541</v>
+        <v>0.5594053607679328</v>
       </c>
       <c r="F10">
-        <v>8.078593147645961</v>
+        <v>8.078593147645989</v>
       </c>
       <c r="G10">
         <v>6.547940799977653</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4953876625145455</v>
+        <v>0.4953876625145313</v>
       </c>
       <c r="J10">
-        <v>41.31741516840646</v>
+        <v>41.31741516840668</v>
       </c>
       <c r="K10">
-        <v>0.2115673378658158</v>
+        <v>0.2115673378657874</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6139523437698529</v>
+        <v>0.613952343769995</v>
       </c>
       <c r="D11">
-        <v>0.3479952855860624</v>
+        <v>0.34799528558605</v>
       </c>
       <c r="E11">
         <v>0.6638094755869588</v>
       </c>
       <c r="F11">
-        <v>10.63364612712203</v>
+        <v>10.63364612712235</v>
       </c>
       <c r="G11">
-        <v>8.722584221096838</v>
+        <v>8.722584221097065</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6160986961035846</v>
+        <v>0.6160986961035775</v>
       </c>
       <c r="J11">
-        <v>47.49731785442827</v>
+        <v>47.49731785442879</v>
       </c>
       <c r="K11">
-        <v>0.2504919993299772</v>
+        <v>0.2504919993299417</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6729912329704462</v>
+        <v>0.6729912329708441</v>
       </c>
       <c r="D12">
-        <v>0.4247115101434833</v>
+        <v>0.4247115101433945</v>
       </c>
       <c r="E12">
-        <v>0.7258869040944873</v>
+        <v>0.7258869040945015</v>
       </c>
       <c r="F12">
-        <v>12.30970783578249</v>
+        <v>12.30970783578218</v>
       </c>
       <c r="G12">
-        <v>10.1593463840311</v>
+        <v>10.15934638403081</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6925532806797605</v>
+        <v>0.6925532806797676</v>
       </c>
       <c r="J12">
-        <v>50.89860503109975</v>
+        <v>50.89860503109918</v>
       </c>
       <c r="K12">
-        <v>0.2735978583069354</v>
+        <v>0.2735978583069674</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0.6579565765913458</v>
       </c>
       <c r="D13">
-        <v>0.4044097542848721</v>
+        <v>0.4044097542848384</v>
       </c>
       <c r="E13">
-        <v>0.7100858901650824</v>
+        <v>0.710085890165054</v>
       </c>
       <c r="F13">
-        <v>11.87199670807226</v>
+        <v>11.87199670807215</v>
       </c>
       <c r="G13">
-        <v>9.78344295023399</v>
+        <v>9.783442950233933</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6727490712212614</v>
+        <v>0.6727490712212187</v>
       </c>
       <c r="J13">
-        <v>50.05340529410427</v>
+        <v>50.05340529410398</v>
       </c>
       <c r="K13">
-        <v>0.2677183614713314</v>
+        <v>0.267718361471335</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6180178628964086</v>
+        <v>0.618017862896437</v>
       </c>
       <c r="D14">
-        <v>0.3530214284104538</v>
+        <v>0.3530214284104449</v>
       </c>
       <c r="E14">
-        <v>0.6680873205897271</v>
+        <v>0.6680873205896987</v>
       </c>
       <c r="F14">
-        <v>10.74539284449818</v>
+        <v>10.74539284449767</v>
       </c>
       <c r="G14">
-        <v>8.81814704051871</v>
+        <v>8.81814704051834</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0.6212523018365985</v>
       </c>
       <c r="J14">
-        <v>47.73853055566497</v>
+        <v>47.73853055566434</v>
       </c>
       <c r="K14">
-        <v>0.2520849643117877</v>
+        <v>0.2520849643117771</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5977504228525277</v>
+        <v>0.5977504228522719</v>
       </c>
       <c r="D15">
-        <v>0.3283370842404043</v>
+        <v>0.3283370842401325</v>
       </c>
       <c r="E15">
         <v>0.6467553689476588</v>
       </c>
       <c r="F15">
-        <v>10.19368085508719</v>
+        <v>10.19368085508728</v>
       </c>
       <c r="G15">
-        <v>8.346678460390507</v>
+        <v>8.346678460390592</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5957191376302404</v>
+        <v>0.595719137630276</v>
       </c>
       <c r="J15">
-        <v>46.52598599548116</v>
+        <v>46.52598599548111</v>
       </c>
       <c r="K15">
-        <v>0.2441401782009507</v>
+        <v>0.2441401782009365</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5097752671184708</v>
+        <v>0.5097752671183571</v>
       </c>
       <c r="D16">
-        <v>0.2317921724339911</v>
+        <v>0.2317921724340835</v>
       </c>
       <c r="E16">
-        <v>0.5539350978621158</v>
+        <v>0.5539350978621016</v>
       </c>
       <c r="F16">
-        <v>7.953829611780407</v>
+        <v>7.953829611780435</v>
       </c>
       <c r="G16">
-        <v>6.442321360083653</v>
+        <v>6.44232136008371</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.489324359555269</v>
+        <v>0.4893243595552832</v>
       </c>
       <c r="J16">
         <v>40.97873362948411</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4683006930564488</v>
+        <v>0.4683006930564204</v>
       </c>
       <c r="D17">
-        <v>0.1921209360688625</v>
+        <v>0.1921209360689478</v>
       </c>
       <c r="E17">
-        <v>0.5100151959422945</v>
+        <v>0.5100151959423229</v>
       </c>
       <c r="F17">
-        <v>6.984925966917871</v>
+        <v>6.984925966917729</v>
       </c>
       <c r="G17">
-        <v>5.624209345998906</v>
+        <v>5.624209345998807</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4415556082879064</v>
+        <v>0.4415556082878709</v>
       </c>
       <c r="J17">
-        <v>38.20836928456663</v>
+        <v>38.20836928456634</v>
       </c>
       <c r="K17">
-        <v>0.1931146563769879</v>
+        <v>0.193114656376995</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4469405944207949</v>
+        <v>0.4469405944208518</v>
       </c>
       <c r="D18">
-        <v>0.1731216298758484</v>
+        <v>0.1731216298758573</v>
       </c>
       <c r="E18">
-        <v>0.4873479937581209</v>
+        <v>0.487347993758128</v>
       </c>
       <c r="F18">
-        <v>6.507687042246118</v>
+        <v>6.507687042245919</v>
       </c>
       <c r="G18">
-        <v>5.222743942151624</v>
+        <v>5.222743942151496</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0.4175284299107673</v>
       </c>
       <c r="J18">
-        <v>36.74364671325316</v>
+        <v>36.74364671325282</v>
       </c>
       <c r="K18">
-        <v>0.1846362351284618</v>
+        <v>0.1846362351284441</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.440039111717482</v>
+        <v>0.4400391117170841</v>
       </c>
       <c r="D19">
-        <v>0.1671894625525949</v>
+        <v>0.1671894625523986</v>
       </c>
       <c r="E19">
-        <v>0.4800168095147015</v>
+        <v>0.4800168095146731</v>
       </c>
       <c r="F19">
-        <v>6.356660058799179</v>
+        <v>6.356660058799065</v>
       </c>
       <c r="G19">
-        <v>5.095921733508277</v>
+        <v>5.095921733508206</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4098475046546497</v>
+        <v>0.4098475046546355</v>
       </c>
       <c r="J19">
-        <v>36.26491160891493</v>
+        <v>36.2649116089151</v>
       </c>
       <c r="K19">
-        <v>0.1818927071133949</v>
+        <v>0.181892707113402</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4724309253408592</v>
+        <v>0.4724309253408876</v>
       </c>
       <c r="D20">
         <v>0.1959065350091862</v>
       </c>
       <c r="E20">
-        <v>0.5143942995121051</v>
+        <v>0.5143942995120838</v>
       </c>
       <c r="F20">
-        <v>7.078914525526272</v>
+        <v>7.078914525526045</v>
       </c>
       <c r="G20">
-        <v>5.703397196375064</v>
+        <v>5.703397196374837</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4462462532202949</v>
+        <v>0.4462462532202878</v>
       </c>
       <c r="J20">
-        <v>38.48862606149657</v>
+        <v>38.48862606149652</v>
       </c>
       <c r="K20">
-        <v>0.1947518860343962</v>
+        <v>0.1947518860343678</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,28 +1140,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D21">
-        <v>0.366386304217686</v>
+        <v>0.3663863042174285</v>
       </c>
       <c r="E21">
-        <v>0.6793074850642427</v>
+        <v>0.6793074850642213</v>
       </c>
       <c r="F21">
-        <v>11.04112918896234</v>
+        <v>11.04112918896249</v>
       </c>
       <c r="G21">
-        <v>9.071217335642302</v>
+        <v>9.071217335642388</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6348493837389384</v>
+        <v>0.6348493837389313</v>
       </c>
       <c r="J21">
-        <v>48.36649198089668</v>
+        <v>48.36649198089691</v>
       </c>
       <c r="K21">
-        <v>0.2562625095118598</v>
+        <v>0.2562625095119166</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D22">
-        <v>0.366386304217686</v>
+        <v>0.3663863042174285</v>
       </c>
       <c r="E22">
-        <v>0.6793074850642427</v>
+        <v>0.6793074850642213</v>
       </c>
       <c r="F22">
-        <v>11.04112918896234</v>
+        <v>11.04112918896249</v>
       </c>
       <c r="G22">
-        <v>9.071217335642302</v>
+        <v>9.071217335642388</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6348493837389384</v>
+        <v>0.6348493837389313</v>
       </c>
       <c r="J22">
-        <v>48.36649198089668</v>
+        <v>48.36649198089691</v>
       </c>
       <c r="K22">
-        <v>0.2562625095118598</v>
+        <v>0.2562625095119166</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1216,28 +1216,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D23">
-        <v>0.366386304217686</v>
+        <v>0.3663863042174285</v>
       </c>
       <c r="E23">
-        <v>0.6793074850642427</v>
+        <v>0.6793074850642213</v>
       </c>
       <c r="F23">
-        <v>11.04112918896234</v>
+        <v>11.04112918896249</v>
       </c>
       <c r="G23">
-        <v>9.071217335642302</v>
+        <v>9.071217335642388</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6348493837389384</v>
+        <v>0.6348493837389313</v>
       </c>
       <c r="J23">
-        <v>48.36649198089668</v>
+        <v>48.36649198089691</v>
       </c>
       <c r="K23">
-        <v>0.2562625095118598</v>
+        <v>0.2562625095119166</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D24">
-        <v>0.366386304217686</v>
+        <v>0.3663863042174285</v>
       </c>
       <c r="E24">
-        <v>0.6793074850642427</v>
+        <v>0.6793074850642213</v>
       </c>
       <c r="F24">
-        <v>11.04112918896234</v>
+        <v>11.04112918896249</v>
       </c>
       <c r="G24">
-        <v>9.071217335642302</v>
+        <v>9.071217335642388</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6348493837389384</v>
+        <v>0.6348493837389313</v>
       </c>
       <c r="J24">
-        <v>48.36649198089668</v>
+        <v>48.36649198089691</v>
       </c>
       <c r="K24">
-        <v>0.2562625095118598</v>
+        <v>0.2562625095119166</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1292,28 +1292,28 @@
         <v>0.6286836032092822</v>
       </c>
       <c r="D25">
-        <v>0.366386304217686</v>
+        <v>0.3663863042174285</v>
       </c>
       <c r="E25">
-        <v>0.6793074850642427</v>
+        <v>0.6793074850642213</v>
       </c>
       <c r="F25">
-        <v>11.04112918896234</v>
+        <v>11.04112918896249</v>
       </c>
       <c r="G25">
-        <v>9.071217335642302</v>
+        <v>9.071217335642388</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6348493837389384</v>
+        <v>0.6348493837389313</v>
       </c>
       <c r="J25">
-        <v>48.36649198089668</v>
+        <v>48.36649198089691</v>
       </c>
       <c r="K25">
-        <v>0.2562625095118598</v>
+        <v>0.2562625095119166</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2655322965807301</v>
+        <v>0.2654753297976811</v>
       </c>
       <c r="D2">
-        <v>0.05035142123839931</v>
+        <v>0.0501989849957889</v>
       </c>
       <c r="E2">
-        <v>0.2932574799731782</v>
+        <v>0.2932496468148358</v>
       </c>
       <c r="F2">
-        <v>3.063928728587825</v>
+        <v>3.057087897401061</v>
       </c>
       <c r="G2">
-        <v>2.367536151318902</v>
+        <v>0.825349513388943</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.538490755024412</v>
       </c>
       <c r="I2">
-        <v>0.2287021710456365</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>23.26164511757787</v>
+        <v>0.2285008235690889</v>
       </c>
       <c r="K2">
-        <v>0.1117482500496578</v>
+        <v>23.25727575300749</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1117543060372235</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2222359789525399</v>
+        <v>0.2222045439002329</v>
       </c>
       <c r="D3">
-        <v>0.03131133492934879</v>
+        <v>0.03122688660760597</v>
       </c>
       <c r="E3">
-        <v>0.2464419278836019</v>
+        <v>0.2464524917235664</v>
       </c>
       <c r="F3">
-        <v>2.412059117587674</v>
+        <v>2.406891689570784</v>
       </c>
       <c r="G3">
-        <v>1.840092038293037</v>
+        <v>0.6392138365279294</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.199182702976401</v>
       </c>
       <c r="I3">
-        <v>0.1876784746571971</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>19.75348862675855</v>
+        <v>0.1875301618898995</v>
       </c>
       <c r="K3">
-        <v>0.09407912919040129</v>
+        <v>19.75076991981956</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.09409061722575274</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1976341348490109</v>
+        <v>0.1976136868411373</v>
       </c>
       <c r="D4">
-        <v>0.02232785389994163</v>
+        <v>0.02227342732848536</v>
       </c>
       <c r="E4">
-        <v>0.2197399193754563</v>
+        <v>0.2197573400524675</v>
       </c>
       <c r="F4">
-        <v>2.074015247381681</v>
+        <v>2.069664176384663</v>
       </c>
       <c r="G4">
-        <v>1.569537588264069</v>
+        <v>0.5428142184108111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.026025998798247</v>
       </c>
       <c r="I4">
-        <v>0.1651022732754264</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>17.70385553293858</v>
+        <v>0.1649792861888848</v>
       </c>
       <c r="K4">
-        <v>0.08398367471714607</v>
+        <v>17.70188009456029</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.08399692563768468</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.187986609606142</v>
+        <v>0.1879698509126229</v>
       </c>
       <c r="D5">
-        <v>0.01917927087612981</v>
+        <v>0.01913499956076337</v>
       </c>
       <c r="E5">
-        <v>0.2092475382243748</v>
+        <v>0.2092670156953673</v>
       </c>
       <c r="F5">
-        <v>1.948224807557324</v>
+        <v>1.944169489629033</v>
       </c>
       <c r="G5">
-        <v>1.469527590491197</v>
+        <v>0.5069609896986407</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9622350064499869</v>
       </c>
       <c r="I5">
-        <v>0.1564005493742791</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.8881947107177</v>
+        <v>0.1562866514201211</v>
       </c>
       <c r="K5">
-        <v>0.08001303061379161</v>
+        <v>16.88647575920345</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.08002674014223388</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1864046159740838</v>
+        <v>0.1863884305864474</v>
       </c>
       <c r="D6">
-        <v>0.01868345987996478</v>
+        <v>0.01864076820550375</v>
       </c>
       <c r="E6">
-        <v>0.207525819786774</v>
+        <v>0.2075456022135214</v>
       </c>
       <c r="F6">
-        <v>1.92797360525033</v>
+        <v>1.923965517159345</v>
       </c>
       <c r="G6">
-        <v>1.453465443653528</v>
+        <v>0.5011896752717035</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9520028078045755</v>
       </c>
       <c r="I6">
-        <v>0.1549819949732694</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.75377842573164</v>
+        <v>0.1548695444451518</v>
       </c>
       <c r="K6">
-        <v>0.07936127313584151</v>
+        <v>16.75209972383971</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.07937504596663203</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1975026277446119</v>
+        <v>0.1974822322909802</v>
       </c>
       <c r="D7">
-        <v>0.02228350037365368</v>
+        <v>0.02222921828525448</v>
       </c>
       <c r="E7">
-        <v>0.219596978472957</v>
+        <v>0.2196144294973834</v>
       </c>
       <c r="F7">
-        <v>2.072274378663408</v>
+        <v>2.067927429277233</v>
       </c>
       <c r="G7">
-        <v>1.568150805746953</v>
+        <v>0.5423179701588339</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.025140545941696</v>
       </c>
       <c r="I7">
-        <v>0.1649830754193111</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>17.69278336601008</v>
+        <v>0.1648602153046212</v>
       </c>
       <c r="K7">
-        <v>0.08392959574121406</v>
+        <v>17.69081155274284</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.08394285376399679</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2501063452389758</v>
+        <v>0.2500594580035624</v>
       </c>
       <c r="D8">
-        <v>0.04310300710839066</v>
+        <v>0.04297710652797582</v>
       </c>
       <c r="E8">
-        <v>0.2766024314889179</v>
+        <v>0.2766021577551214</v>
       </c>
       <c r="F8">
-        <v>2.823616161482008</v>
+        <v>2.817408473360786</v>
       </c>
       <c r="G8">
-        <v>2.172344587876111</v>
+        <v>0.7566913452978099</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.412707611211502</v>
       </c>
       <c r="I8">
-        <v>0.2139012363241228</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>22.02563797805851</v>
+        <v>0.2137201315068715</v>
       </c>
       <c r="K8">
-        <v>0.105466647496538</v>
+        <v>22.02191038890589</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1054750086254401</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3779003749835965</v>
+        <v>0.3777259946805032</v>
       </c>
       <c r="D9">
-        <v>0.1182867848323816</v>
+        <v>0.1178472570890898</v>
       </c>
       <c r="E9">
-        <v>0.413835299526248</v>
+        <v>0.4137272893957871</v>
       </c>
       <c r="F9">
-        <v>5.067000760875374</v>
+        <v>5.053956943833015</v>
       </c>
       <c r="G9">
-        <v>4.017959270742267</v>
+        <v>1.399301609770234</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.607940228385758</v>
       </c>
       <c r="I9">
-        <v>0.3424752728038882</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>31.83421754955964</v>
+        <v>0.342065467858653</v>
       </c>
       <c r="K9">
-        <v>0.1570936395706255</v>
+        <v>31.82285091315816</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.15706629417231</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5149485364183022</v>
+        <v>0.514432458836211</v>
       </c>
       <c r="D10">
-        <v>0.2370001048940207</v>
+        <v>0.2358355618602292</v>
       </c>
       <c r="E10">
-        <v>0.5594053607679328</v>
+        <v>0.5589700791392431</v>
       </c>
       <c r="F10">
-        <v>8.078593147645989</v>
+        <v>8.051093059521918</v>
       </c>
       <c r="G10">
-        <v>6.547940799977653</v>
+        <v>2.266256577844047</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.256020807517032</v>
       </c>
       <c r="I10">
-        <v>0.4953876625145313</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>41.31741516840668</v>
+        <v>0.494442688560305</v>
       </c>
       <c r="K10">
-        <v>0.2115673378657874</v>
+        <v>41.28750280873248</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2114235481817488</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.613952343769995</v>
+        <v>0.6127999550008667</v>
       </c>
       <c r="D11">
-        <v>0.34799528558605</v>
+        <v>0.3456307643915597</v>
       </c>
       <c r="E11">
-        <v>0.6638094755869588</v>
+        <v>0.6627315577750252</v>
       </c>
       <c r="F11">
-        <v>10.63364612712235</v>
+        <v>10.58252195586184</v>
       </c>
       <c r="G11">
-        <v>8.722584221097065</v>
+        <v>3.00256626728077</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.671856400781195</v>
       </c>
       <c r="I11">
-        <v>0.6160986961035775</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>47.49731785442879</v>
+        <v>0.614205553041522</v>
       </c>
       <c r="K11">
-        <v>0.2504919993299417</v>
+        <v>47.43508173161206</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2501135536812384</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6729912329708441</v>
+        <v>0.6709375384495502</v>
       </c>
       <c r="D12">
-        <v>0.4247115101433945</v>
+        <v>0.4207530280651444</v>
       </c>
       <c r="E12">
-        <v>0.7258869040945015</v>
+        <v>0.7238781990036998</v>
       </c>
       <c r="F12">
-        <v>12.30970783578218</v>
+        <v>12.22699568235933</v>
       </c>
       <c r="G12">
-        <v>10.15934638403081</v>
+        <v>3.482549487683713</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.599942471019887</v>
       </c>
       <c r="I12">
-        <v>0.6925532806797676</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>50.89860503109918</v>
+        <v>0.6893353577134107</v>
       </c>
       <c r="K12">
-        <v>0.2735978583069674</v>
+        <v>50.7921684386211</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2728760082919308</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6579565765913458</v>
+        <v>0.6562070372806375</v>
       </c>
       <c r="D13">
-        <v>0.4044097542848384</v>
+        <v>0.400981966457099</v>
       </c>
       <c r="E13">
-        <v>0.710085890165054</v>
+        <v>0.7083926667667129</v>
       </c>
       <c r="F13">
-        <v>11.87199670807215</v>
+        <v>11.79982633747119</v>
       </c>
       <c r="G13">
-        <v>9.783442950233933</v>
+        <v>3.35775283498964</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.358314738167536</v>
       </c>
       <c r="I13">
-        <v>0.6727490712212187</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>50.05340529410398</v>
+        <v>0.669977371561771</v>
       </c>
       <c r="K13">
-        <v>0.267718361471335</v>
+        <v>49.96177354400339</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2671131383412373</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.618017862896437</v>
+        <v>0.6168230524859837</v>
       </c>
       <c r="D14">
-        <v>0.3530214284104449</v>
+        <v>0.3505800495719811</v>
       </c>
       <c r="E14">
-        <v>0.6680873205896987</v>
+        <v>0.6669659442860052</v>
       </c>
       <c r="F14">
-        <v>10.74539284449767</v>
+        <v>10.6927512673432</v>
       </c>
       <c r="G14">
-        <v>8.81814704051834</v>
+        <v>3.034701068619597</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.733881257526491</v>
       </c>
       <c r="I14">
-        <v>0.6212523018365985</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>47.73853055566434</v>
+        <v>0.6192965641547445</v>
       </c>
       <c r="K14">
-        <v>0.2520849643117771</v>
+        <v>47.67418604486852</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2516905443406614</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5977504228522719</v>
+        <v>0.5967490467184575</v>
       </c>
       <c r="D15">
-        <v>0.3283370842401325</v>
+        <v>0.3262484741625595</v>
       </c>
       <c r="E15">
-        <v>0.6467553689476588</v>
+        <v>0.6458317105914659</v>
       </c>
       <c r="F15">
-        <v>10.19368085508728</v>
+        <v>10.14799862413338</v>
       </c>
       <c r="G15">
-        <v>8.346678460390592</v>
+        <v>2.875947342209884</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.427633044838302</v>
       </c>
       <c r="I15">
-        <v>0.595719137630276</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>46.52598599548111</v>
+        <v>0.5940491928216076</v>
       </c>
       <c r="K15">
-        <v>0.2441401782009365</v>
+        <v>46.47129002551867</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2438183593530709</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5097752671183571</v>
+        <v>0.5092793552189505</v>
       </c>
       <c r="D16">
-        <v>0.2317921724340835</v>
+        <v>0.2306679295961427</v>
       </c>
       <c r="E16">
-        <v>0.5539350978621016</v>
+        <v>0.5535197208384943</v>
       </c>
       <c r="F16">
-        <v>7.953829611780435</v>
+        <v>7.927122961409196</v>
       </c>
       <c r="G16">
-        <v>6.44232136008371</v>
+        <v>2.230285651562937</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.187159292054687</v>
       </c>
       <c r="I16">
-        <v>0.4893243595552832</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>40.97873362948411</v>
+        <v>0.4884099974467873</v>
       </c>
       <c r="K16">
-        <v>0.2095249516208852</v>
+        <v>40.94987891743551</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2093883509223922</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4683006930564204</v>
+        <v>0.4679402211314994</v>
       </c>
       <c r="D17">
-        <v>0.1921209360689478</v>
+        <v>0.1912737942325826</v>
       </c>
       <c r="E17">
-        <v>0.5100151959423229</v>
+        <v>0.5097320922102995</v>
       </c>
       <c r="F17">
-        <v>6.984925966917729</v>
+        <v>6.963690088434987</v>
       </c>
       <c r="G17">
-        <v>5.624209345998807</v>
+        <v>1.951045719667349</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.653802072040747</v>
       </c>
       <c r="I17">
-        <v>0.4415556082878709</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>38.20836928456634</v>
+        <v>0.4408489582807888</v>
       </c>
       <c r="K17">
-        <v>0.193114656376995</v>
+        <v>38.18671200486392</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1930255813069621</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4469405944208518</v>
+        <v>0.446635193234016</v>
       </c>
       <c r="D18">
-        <v>0.1731216298758573</v>
+        <v>0.1723911227963351</v>
       </c>
       <c r="E18">
-        <v>0.487347993758128</v>
+        <v>0.487117755969031</v>
       </c>
       <c r="F18">
-        <v>6.507687042245919</v>
+        <v>6.488768448076883</v>
       </c>
       <c r="G18">
-        <v>5.222743942151496</v>
+        <v>1.813605433309817</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.392167705151479</v>
       </c>
       <c r="I18">
-        <v>0.4175284299107673</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>36.74364671325282</v>
+        <v>0.4169077156638608</v>
       </c>
       <c r="K18">
-        <v>0.1846362351284441</v>
+        <v>36.72497423631751</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1845659920267799</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4400391117170841</v>
+        <v>0.4397497836615969</v>
       </c>
       <c r="D19">
-        <v>0.1671894625523986</v>
+        <v>0.1664935358944257</v>
       </c>
       <c r="E19">
-        <v>0.4800168095146731</v>
+        <v>0.4798018688090622</v>
       </c>
       <c r="F19">
-        <v>6.356660058799065</v>
+        <v>6.338431293280422</v>
       </c>
       <c r="G19">
-        <v>5.095921733508206</v>
+        <v>1.770128885266246</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.309541145490385</v>
       </c>
       <c r="I19">
-        <v>0.4098475046546355</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>36.2649116089151</v>
+        <v>0.4092521007159036</v>
       </c>
       <c r="K19">
-        <v>0.181892707113402</v>
+        <v>36.24711830761214</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1818278892021787</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4724309253408876</v>
+        <v>0.4720587845356192</v>
       </c>
       <c r="D20">
-        <v>0.1959065350091862</v>
+        <v>0.1950350128756568</v>
       </c>
       <c r="E20">
-        <v>0.5143942995120838</v>
+        <v>0.51409991452919</v>
       </c>
       <c r="F20">
-        <v>7.078914525526045</v>
+        <v>7.057195722864662</v>
       </c>
       <c r="G20">
-        <v>5.703397196374837</v>
+        <v>1.97812264312644</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.705419265416097</v>
       </c>
       <c r="I20">
-        <v>0.4462462532202878</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>38.48862606149652</v>
+        <v>0.4455215275674789</v>
       </c>
       <c r="K20">
-        <v>0.1947518860343678</v>
+        <v>38.46634126224592</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1946587779796509</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6286836032092822</v>
+        <v>0.6273672910209314</v>
       </c>
       <c r="D21">
-        <v>0.3663863042174285</v>
+        <v>0.3637261382044468</v>
       </c>
       <c r="E21">
-        <v>0.6793074850642213</v>
+        <v>0.6780613800180149</v>
       </c>
       <c r="F21">
-        <v>11.04112918896249</v>
+        <v>10.9841645414665</v>
       </c>
       <c r="G21">
-        <v>9.071217335642388</v>
+        <v>3.119683196614176</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.89798985568612</v>
       </c>
       <c r="I21">
-        <v>0.6348493837389313</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>48.36649198089691</v>
+        <v>0.6327145663452001</v>
       </c>
       <c r="K21">
-        <v>0.2562625095119166</v>
+        <v>48.29612904121421</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2558221984757658</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6286836032092822</v>
+        <v>0.6273672910209314</v>
       </c>
       <c r="D22">
-        <v>0.3663863042174285</v>
+        <v>0.3637261382044468</v>
       </c>
       <c r="E22">
-        <v>0.6793074850642213</v>
+        <v>0.6780613800180149</v>
       </c>
       <c r="F22">
-        <v>11.04112918896249</v>
+        <v>10.9841645414665</v>
       </c>
       <c r="G22">
-        <v>9.071217335642388</v>
+        <v>3.119683196614176</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.89798985568612</v>
       </c>
       <c r="I22">
-        <v>0.6348493837389313</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>48.36649198089691</v>
+        <v>0.6327145663452001</v>
       </c>
       <c r="K22">
-        <v>0.2562625095119166</v>
+        <v>48.29612904121421</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2558221984757658</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6286836032092822</v>
+        <v>0.7349626823022106</v>
       </c>
       <c r="D23">
-        <v>0.3663863042174285</v>
+        <v>0.5126396484316587</v>
       </c>
       <c r="E23">
-        <v>0.6793074850642213</v>
+        <v>0.7911726393990008</v>
       </c>
       <c r="F23">
-        <v>11.04112918896249</v>
+        <v>14.16720555469192</v>
       </c>
       <c r="G23">
-        <v>9.071217335642388</v>
+        <v>4.050339059340445</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.701754151611084</v>
       </c>
       <c r="I23">
-        <v>0.6348493837389313</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>48.36649198089691</v>
+        <v>0.7761534226909745</v>
       </c>
       <c r="K23">
-        <v>0.2562625095119166</v>
+        <v>54.23549194086849</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2979131363444161</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6286836032092822</v>
+        <v>0.4701894991115694</v>
       </c>
       <c r="D24">
-        <v>0.3663863042174285</v>
+        <v>0.1933234492322278</v>
       </c>
       <c r="E24">
-        <v>0.6793074850642213</v>
+        <v>0.5121176497600359</v>
       </c>
       <c r="F24">
-        <v>11.04112918896249</v>
+        <v>7.014688407403696</v>
       </c>
       <c r="G24">
-        <v>9.071217335642388</v>
+        <v>1.965812900062147</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.681950137149656</v>
       </c>
       <c r="I24">
-        <v>0.6348493837389313</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>48.36649198089691</v>
+        <v>0.4433990054706953</v>
       </c>
       <c r="K24">
-        <v>0.2562625095119166</v>
+        <v>38.33954489824742</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1939176068643533</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.6286836032092822</v>
+        <v>0.3388688505858966</v>
       </c>
       <c r="D25">
-        <v>0.3663863042174285</v>
+        <v>0.09145566483192447</v>
       </c>
       <c r="E25">
-        <v>0.6793074850642213</v>
+        <v>0.3721613942483728</v>
       </c>
       <c r="F25">
-        <v>11.04112918896249</v>
+        <v>4.313998122094716</v>
       </c>
       <c r="G25">
-        <v>9.071217335642388</v>
+        <v>1.186231883597983</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.207988876064135</v>
       </c>
       <c r="I25">
-        <v>0.6348493837389313</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>48.36649198089691</v>
+        <v>0.3015839228565227</v>
       </c>
       <c r="K25">
-        <v>0.2562625095119166</v>
+        <v>28.94066183568106</v>
       </c>
       <c r="L25">
+        <v>0.1414581545516782</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2654753297976811</v>
+        <v>0.02042543574799272</v>
       </c>
       <c r="D2">
-        <v>0.0501989849957889</v>
+        <v>1.340565945977403</v>
       </c>
       <c r="E2">
-        <v>0.2932496468148358</v>
+        <v>0.1476735909353728</v>
       </c>
       <c r="F2">
-        <v>3.057087897401061</v>
+        <v>19.40784979995658</v>
       </c>
       <c r="G2">
-        <v>0.825349513388943</v>
+        <v>0.0006622229210780399</v>
       </c>
       <c r="H2">
-        <v>1.538490755024412</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2285008235690889</v>
+        <v>0.04185823703846836</v>
       </c>
       <c r="K2">
-        <v>23.25727575300749</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1117543060372235</v>
+        <v>0.4831433327988179</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.62099651465894</v>
+      </c>
+      <c r="N2">
+        <v>1.319932593206403</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2222045439002329</v>
+        <v>0.02252765236639842</v>
       </c>
       <c r="D3">
-        <v>0.03122688660760597</v>
+        <v>1.058643702587261</v>
       </c>
       <c r="E3">
-        <v>0.2464524917235664</v>
+        <v>0.1171021945713804</v>
       </c>
       <c r="F3">
-        <v>2.406891689570784</v>
+        <v>15.96933864959578</v>
       </c>
       <c r="G3">
-        <v>0.6392138365279294</v>
+        <v>0.000733665615137488</v>
       </c>
       <c r="H3">
-        <v>1.199182702976401</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1875301618898995</v>
+        <v>0.04751591794123478</v>
       </c>
       <c r="K3">
-        <v>19.75076991981956</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09409061722575274</v>
+        <v>0.3820297763119385</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.22359021889724</v>
+      </c>
+      <c r="N3">
+        <v>1.29880540176741</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1976136868411373</v>
+        <v>0.02375443395589194</v>
       </c>
       <c r="D4">
-        <v>0.02227342732848536</v>
+        <v>0.9237812368610605</v>
       </c>
       <c r="E4">
-        <v>0.2197573400524675</v>
+        <v>0.1017117656047404</v>
       </c>
       <c r="F4">
-        <v>2.069664176384663</v>
+        <v>14.36326795250056</v>
       </c>
       <c r="G4">
-        <v>0.5428142184108111</v>
+        <v>0.0007718928021658263</v>
       </c>
       <c r="H4">
-        <v>1.026025998798247</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1649792861888848</v>
+        <v>0.05156615190921698</v>
       </c>
       <c r="K4">
-        <v>17.70188009456029</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08399692563768468</v>
+        <v>0.3314778629162731</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>10.01217744392955</v>
+      </c>
+      <c r="N4">
+        <v>1.282705564835624</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1879698509126229</v>
+        <v>0.02424805755159198</v>
       </c>
       <c r="D5">
-        <v>0.01913499956076337</v>
+        <v>0.874424064210956</v>
       </c>
       <c r="E5">
-        <v>0.2092670156953673</v>
+        <v>0.09592689858688885</v>
       </c>
       <c r="F5">
-        <v>1.944169489629033</v>
+        <v>13.78393829875449</v>
       </c>
       <c r="G5">
-        <v>0.5069609896986407</v>
+        <v>0.0007867266777655419</v>
       </c>
       <c r="H5">
-        <v>0.9622350064499869</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1562866514201211</v>
+        <v>0.05331851401482979</v>
       </c>
       <c r="K5">
-        <v>16.88647575920345</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08002674014223388</v>
+        <v>0.3125495278595594</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9.556890834807547</v>
+      </c>
+      <c r="N5">
+        <v>1.275906799585101</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1863884305864474</v>
+        <v>0.02432981496189068</v>
       </c>
       <c r="D6">
-        <v>0.01864076820550375</v>
+        <v>0.8664981700698036</v>
       </c>
       <c r="E6">
-        <v>0.2075456022135214</v>
+        <v>0.09498955327606851</v>
       </c>
       <c r="F6">
-        <v>1.923965517159345</v>
+        <v>13.69139292460062</v>
       </c>
       <c r="G6">
-        <v>0.5011896752717035</v>
+        <v>0.0007891564192924001</v>
       </c>
       <c r="H6">
-        <v>0.9520028078045755</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1548695444451518</v>
+        <v>0.05361489890717586</v>
       </c>
       <c r="K6">
-        <v>16.75209972383971</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07937504596663203</v>
+        <v>0.3094865534858968</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9.483143834856889</v>
+      </c>
+      <c r="N6">
+        <v>1.274772287358161</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1974822322909802</v>
+        <v>0.02376110837132384</v>
       </c>
       <c r="D7">
-        <v>0.02222921828525448</v>
+        <v>0.9230962133971445</v>
       </c>
       <c r="E7">
-        <v>0.2196144294973834</v>
+        <v>0.1016320756336739</v>
       </c>
       <c r="F7">
-        <v>2.067927429277233</v>
+        <v>14.35519338841647</v>
       </c>
       <c r="G7">
-        <v>0.5423179701588339</v>
+        <v>0.0007720953135649718</v>
       </c>
       <c r="H7">
-        <v>1.025140545941696</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1648602153046212</v>
+        <v>0.05158940835008607</v>
       </c>
       <c r="K7">
-        <v>17.69081155274284</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08394285376399679</v>
+        <v>0.3312168281810841</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10.00590431916768</v>
+      </c>
+      <c r="N7">
+        <v>1.282614410408286</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2500594580035624</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D8">
-        <v>0.04297710652797582</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E8">
-        <v>0.2766021577551214</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F8">
-        <v>2.817408473360786</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G8">
-        <v>0.7566913452978099</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H8">
-        <v>1.412707611211502</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2137201315068715</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K8">
-        <v>22.02191038890589</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1054750086254401</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N8">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3777259946805032</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D9">
-        <v>0.1178472570890898</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E9">
-        <v>0.4137272893957871</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F9">
-        <v>5.053956943833015</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G9">
-        <v>1.399301609770234</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H9">
-        <v>2.607940228385758</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.342065467858653</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K9">
-        <v>31.82285091315816</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.15706629417231</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N9">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.514432458836211</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D10">
-        <v>0.2358355618602292</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E10">
-        <v>0.5589700791392431</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F10">
-        <v>8.051093059521918</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G10">
-        <v>2.266256577844047</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H10">
-        <v>4.256020807517032</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.494442688560305</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K10">
-        <v>41.28750280873248</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2114235481817488</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N10">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6127999550008667</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D11">
-        <v>0.3456307643915597</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E11">
-        <v>0.6627315577750252</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F11">
-        <v>10.58252195586184</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G11">
-        <v>3.00256626728077</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H11">
-        <v>5.671856400781195</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.614205553041522</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K11">
-        <v>47.43508173161206</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2501135536812384</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N11">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6709375384495502</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D12">
-        <v>0.4207530280651444</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E12">
-        <v>0.7238781990036998</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F12">
-        <v>12.22699568235933</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G12">
-        <v>3.482549487683713</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H12">
-        <v>6.599942471019887</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6893353577134107</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K12">
-        <v>50.7921684386211</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2728760082919308</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N12">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6562070372806375</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D13">
-        <v>0.400981966457099</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E13">
-        <v>0.7083926667667129</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F13">
-        <v>11.79982633747119</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G13">
-        <v>3.35775283498964</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H13">
-        <v>6.358314738167536</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.669977371561771</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K13">
-        <v>49.96177354400339</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2671131383412373</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N13">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6168230524859837</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D14">
-        <v>0.3505800495719811</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E14">
-        <v>0.6669659442860052</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F14">
-        <v>10.6927512673432</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G14">
-        <v>3.034701068619597</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H14">
-        <v>5.733881257526491</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6192965641547445</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K14">
-        <v>47.67418604486852</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2516905443406614</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N14">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5967490467184575</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D15">
-        <v>0.3262484741625595</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E15">
-        <v>0.6458317105914659</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F15">
-        <v>10.14799862413338</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G15">
-        <v>2.875947342209884</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H15">
-        <v>5.427633044838302</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5940491928216076</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K15">
-        <v>46.47129002551867</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2438183593530709</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N15">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5092793552189505</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D16">
-        <v>0.2306679295961427</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E16">
-        <v>0.5535197208384943</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F16">
-        <v>7.927122961409196</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G16">
-        <v>2.230285651562937</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H16">
-        <v>4.187159292054687</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4884099974467873</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K16">
-        <v>40.94987891743551</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2093883509223922</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N16">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4679402211314994</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D17">
-        <v>0.1912737942325826</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E17">
-        <v>0.5097320922102995</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F17">
-        <v>6.963690088434987</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G17">
-        <v>1.951045719667349</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H17">
-        <v>3.653802072040747</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4408489582807888</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K17">
-        <v>38.18671200486392</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1930255813069621</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N17">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.446635193234016</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D18">
-        <v>0.1723911227963351</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E18">
-        <v>0.487117755969031</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F18">
-        <v>6.488768448076883</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G18">
-        <v>1.813605433309817</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H18">
-        <v>3.392167705151479</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4169077156638608</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K18">
-        <v>36.72497423631751</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1845659920267799</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N18">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4397497836615969</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D19">
-        <v>0.1664935358944257</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E19">
-        <v>0.4798018688090622</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F19">
-        <v>6.338431293280422</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G19">
-        <v>1.770128885266246</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H19">
-        <v>3.309541145490385</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4092521007159036</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K19">
-        <v>36.24711830761214</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1818278892021787</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N19">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4720587845356192</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D20">
-        <v>0.1950350128756568</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E20">
-        <v>0.51409991452919</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F20">
-        <v>7.057195722864662</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G20">
-        <v>1.97812264312644</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H20">
-        <v>3.705419265416097</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4455215275674789</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K20">
-        <v>38.46634126224592</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1946587779796509</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N20">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6273672910209314</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D21">
-        <v>0.3637261382044468</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E21">
-        <v>0.6780613800180149</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F21">
-        <v>10.9841645414665</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G21">
-        <v>3.119683196614176</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H21">
-        <v>5.89798985568612</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6327145663452001</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K21">
-        <v>48.29612904121421</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2558221984757658</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N21">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6273672910209314</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D22">
-        <v>0.3637261382044468</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E22">
-        <v>0.6780613800180149</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F22">
-        <v>10.9841645414665</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G22">
-        <v>3.119683196614176</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H22">
-        <v>5.89798985568612</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6327145663452001</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K22">
-        <v>48.29612904121421</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2558221984757658</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N22">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7349626823022106</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D23">
-        <v>0.5126396484316587</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E23">
-        <v>0.7911726393990008</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F23">
-        <v>14.16720555469192</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G23">
-        <v>4.050339059340445</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H23">
-        <v>7.701754151611084</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7761534226909745</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K23">
-        <v>54.23549194086849</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2979131363444161</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N23">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4701894991115694</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D24">
-        <v>0.1933234492322278</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E24">
-        <v>0.5121176497600359</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F24">
-        <v>7.014688407403696</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G24">
-        <v>1.965812900062147</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H24">
-        <v>3.681950137149656</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4433990054706953</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K24">
-        <v>38.33954489824742</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1939176068643533</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N24">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3388688505858966</v>
+        <v>0.02117248643823011</v>
       </c>
       <c r="D25">
-        <v>0.09145566483192447</v>
+        <v>1.23168356682163</v>
       </c>
       <c r="E25">
-        <v>0.3721613942483728</v>
+        <v>0.1360922726910587</v>
       </c>
       <c r="F25">
-        <v>4.313998122094716</v>
+        <v>18.06920905681346</v>
       </c>
       <c r="G25">
-        <v>1.186231883597983</v>
+        <v>0.0006886529954791429</v>
       </c>
       <c r="H25">
-        <v>2.207988876064135</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3015839228565227</v>
+        <v>0.04364965508544927</v>
       </c>
       <c r="K25">
-        <v>28.94066183568106</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1414581545516782</v>
+        <v>0.4447422761836606</v>
       </c>
       <c r="M25">
+        <v>12.7150594960053</v>
+      </c>
+      <c r="N25">
+        <v>1.313825775042901</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02042543574799272</v>
+        <v>0.1616769101185724</v>
       </c>
       <c r="D2">
-        <v>1.340565945977403</v>
+        <v>0.06823200235782423</v>
       </c>
       <c r="E2">
-        <v>0.1476735909353728</v>
+        <v>10.456398905208</v>
       </c>
       <c r="F2">
-        <v>19.40784979995658</v>
+        <v>0.5039688282889188</v>
       </c>
       <c r="G2">
-        <v>0.0006622229210780399</v>
+        <v>0.5225600651144191</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.169792290893767</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04185823703846836</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4831433327988179</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.62099651465894</v>
+        <v>39.24668126809956</v>
       </c>
       <c r="N2">
-        <v>1.319932593206403</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.422001161067982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02252765236639842</v>
+        <v>0.1380146391769728</v>
       </c>
       <c r="D3">
-        <v>1.058643702587261</v>
+        <v>0.05701327992231597</v>
       </c>
       <c r="E3">
-        <v>0.1171021945713804</v>
+        <v>8.414305971290958</v>
       </c>
       <c r="F3">
-        <v>15.96933864959578</v>
+        <v>0.3814742330533036</v>
       </c>
       <c r="G3">
-        <v>0.000733665615137488</v>
+        <v>0.3794771759762199</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1253153106114837</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04751591794123478</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3820297763119385</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.22359021889724</v>
+        <v>32.20136725248193</v>
       </c>
       <c r="N3">
-        <v>1.29880540176741</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.024347361511147</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02375443395589194</v>
+        <v>0.1240563106072585</v>
       </c>
       <c r="D4">
-        <v>0.9237812368610605</v>
+        <v>0.05082762522187068</v>
       </c>
       <c r="E4">
-        <v>0.1017117656047404</v>
+        <v>7.354330254228557</v>
       </c>
       <c r="F4">
-        <v>14.36326795250056</v>
+        <v>0.3210564890025438</v>
       </c>
       <c r="G4">
-        <v>0.0007718928021658263</v>
+        <v>0.3100242164575704</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1057054617196016</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05156615190921698</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3314778629162731</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.01217744392955</v>
+        <v>28.42176458092615</v>
       </c>
       <c r="N4">
-        <v>1.282705564835624</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8353590577144274</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02424805755159198</v>
+        <v>0.1184702998095446</v>
       </c>
       <c r="D5">
-        <v>0.874424064210956</v>
+        <v>0.04841351870455668</v>
       </c>
       <c r="E5">
-        <v>0.09592689858688885</v>
+        <v>6.952280405711491</v>
       </c>
       <c r="F5">
-        <v>13.78393829875449</v>
+        <v>0.2989547849220955</v>
       </c>
       <c r="G5">
-        <v>0.0007867266777655419</v>
+        <v>0.2848058334785506</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.09903940238488929</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05331851401482979</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3125495278595594</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.556890834807547</v>
+        <v>26.96687670633872</v>
       </c>
       <c r="N5">
-        <v>1.275906799585101</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7676632028575341</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02432981496189068</v>
+        <v>0.1175480478687518</v>
       </c>
       <c r="D6">
-        <v>0.8664981700698036</v>
+        <v>0.04801778719151173</v>
       </c>
       <c r="E6">
-        <v>0.09498955327606851</v>
+        <v>6.886973649395031</v>
       </c>
       <c r="F6">
-        <v>13.69139292460062</v>
+        <v>0.2954133882389911</v>
       </c>
       <c r="G6">
-        <v>0.0007891564192924001</v>
+        <v>0.2807745584579067</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.09800056220773001</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05361489890717586</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3094865534858968</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.483143834856889</v>
+        <v>26.72946000892</v>
       </c>
       <c r="N6">
-        <v>1.274772287358161</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7568962443101697</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02376110837132384</v>
+        <v>0.1239806030942674</v>
       </c>
       <c r="D7">
-        <v>0.9230962133971445</v>
+        <v>0.0507946987739416</v>
       </c>
       <c r="E7">
-        <v>0.1016320756336739</v>
+        <v>7.348803874701588</v>
       </c>
       <c r="F7">
-        <v>14.35519338841647</v>
+        <v>0.3207493387958067</v>
       </c>
       <c r="G7">
-        <v>0.0007720953135649718</v>
+        <v>0.3096730550661491</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1056107651821137</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05158940835008607</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3312168281810841</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.00590431916768</v>
+        <v>28.40184510857836</v>
       </c>
       <c r="N7">
-        <v>1.282614410408286</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.834412588359271</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D8">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E8">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F8">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G8">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N8">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D9">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E9">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F9">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G9">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N9">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D10">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E10">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F10">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G10">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N10">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D11">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E11">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F11">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G11">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N11">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D12">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E12">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F12">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G12">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N12">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D13">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E13">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F13">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G13">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N13">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D14">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E14">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F14">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G14">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N14">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D15">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E15">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F15">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G15">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N15">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D16">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E16">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F16">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G16">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N16">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D17">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E17">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F17">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G17">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N17">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D18">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E18">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F18">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G18">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N18">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D19">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E19">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F19">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G19">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N19">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D20">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E20">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F20">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G20">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N20">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D21">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E21">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F21">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G21">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N21">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D22">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E22">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F22">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G22">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N22">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D23">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E23">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F23">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G23">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N23">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D24">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E24">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F24">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G24">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N24">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02117248643823011</v>
+        <v>0.1533667851982017</v>
       </c>
       <c r="D25">
-        <v>1.23168356682163</v>
+        <v>0.06415743966336862</v>
       </c>
       <c r="E25">
-        <v>0.1360922726910587</v>
+        <v>9.695782362860712</v>
       </c>
       <c r="F25">
-        <v>18.06920905681346</v>
+        <v>0.4576577139284481</v>
       </c>
       <c r="G25">
-        <v>0.0006886529954791429</v>
+        <v>0.4681102955303373</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04364965508544927</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4447422761836606</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.7150594960053</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N25">
-        <v>1.313825775042901</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616769101185724</v>
+        <v>0.05068189872856976</v>
       </c>
       <c r="D2">
-        <v>0.06823200235782423</v>
+        <v>0.02012915771946666</v>
       </c>
       <c r="E2">
-        <v>10.456398905208</v>
+        <v>2.610379717831819</v>
       </c>
       <c r="F2">
-        <v>0.5039688282889188</v>
+        <v>0.2280750834697685</v>
       </c>
       <c r="G2">
-        <v>0.5225600651144191</v>
+        <v>0.1107505014102301</v>
       </c>
       <c r="H2">
-        <v>0.169792290893767</v>
+        <v>0.2501708476293345</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>39.24668126809956</v>
+        <v>10.73724422489431</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.422001161067982</v>
+        <v>0.6121367570049614</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1380146391769728</v>
+        <v>0.04490780082399226</v>
       </c>
       <c r="D3">
-        <v>0.05701327992231597</v>
+        <v>0.01756561300378223</v>
       </c>
       <c r="E3">
-        <v>8.414305971290958</v>
+        <v>2.273759006768444</v>
       </c>
       <c r="F3">
-        <v>0.3814742330533036</v>
+        <v>0.2293894188412864</v>
       </c>
       <c r="G3">
-        <v>0.3794771759762199</v>
+        <v>0.1106087863054199</v>
       </c>
       <c r="H3">
-        <v>0.1253153106114837</v>
+        <v>0.2591599992339155</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>32.20136725248193</v>
+        <v>9.377944501364027</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.024347361511147</v>
+        <v>0.630138357998419</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1240563106072585</v>
+        <v>0.04138109081412722</v>
       </c>
       <c r="D4">
-        <v>0.05082762522187068</v>
+        <v>0.01598587862493162</v>
       </c>
       <c r="E4">
-        <v>7.354330254228557</v>
+        <v>2.067548363690577</v>
       </c>
       <c r="F4">
-        <v>0.3210564890025438</v>
+        <v>0.2309196464532945</v>
       </c>
       <c r="G4">
-        <v>0.3100242164575704</v>
+        <v>0.1111721518862012</v>
       </c>
       <c r="H4">
-        <v>0.1057054617196016</v>
+        <v>0.2652122288241472</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.42176458092615</v>
+        <v>8.541851201692111</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8353590577144274</v>
+        <v>0.6436719241420832</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1184702998095446</v>
+        <v>0.03994844715647616</v>
       </c>
       <c r="D5">
-        <v>0.04841351870455668</v>
+        <v>0.01534066124539635</v>
       </c>
       <c r="E5">
-        <v>6.952280405711491</v>
+        <v>1.983608590550631</v>
       </c>
       <c r="F5">
-        <v>0.2989547849220955</v>
+        <v>0.2317199245975772</v>
       </c>
       <c r="G5">
-        <v>0.2848058334785506</v>
+        <v>0.1115590481862014</v>
       </c>
       <c r="H5">
-        <v>0.09903940238488929</v>
+        <v>0.267809896077317</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.96687670633872</v>
+        <v>8.200687272836262</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7676632028575341</v>
+        <v>0.6497919388811226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1175480478687518</v>
+        <v>0.03971082616271815</v>
       </c>
       <c r="D6">
-        <v>0.04801778719151173</v>
+        <v>0.01523343446375947</v>
       </c>
       <c r="E6">
-        <v>6.886973649395031</v>
+        <v>1.969675319003073</v>
       </c>
       <c r="F6">
-        <v>0.2954133882389911</v>
+        <v>0.2318633328128215</v>
       </c>
       <c r="G6">
-        <v>0.2807745584579067</v>
+        <v>0.1116326138700074</v>
       </c>
       <c r="H6">
-        <v>0.09800056220773001</v>
+        <v>0.2682490920135976</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.72946000892</v>
+        <v>8.144008028181418</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7568962443101697</v>
+        <v>0.6508441587031939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1239806030942674</v>
+        <v>0.04136175158880917</v>
       </c>
       <c r="D7">
-        <v>0.0507946987739416</v>
+        <v>0.0159771829486246</v>
       </c>
       <c r="E7">
-        <v>7.348803874701588</v>
+        <v>2.066415980768284</v>
       </c>
       <c r="F7">
-        <v>0.3207493387958067</v>
+        <v>0.2309297306026039</v>
       </c>
       <c r="G7">
-        <v>0.3096730550661491</v>
+        <v>0.1111767408630158</v>
       </c>
       <c r="H7">
-        <v>0.1056107651821137</v>
+        <v>0.2652467335853359</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.40184510857836</v>
+        <v>8.537252060664059</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.834412588359271</v>
+        <v>0.6437520358424251</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1533667851982017</v>
+        <v>0.04868702734421504</v>
       </c>
       <c r="D8">
-        <v>0.06415743966336862</v>
+        <v>0.01924641106297287</v>
       </c>
       <c r="E8">
-        <v>9.695782362860712</v>
+        <v>2.494197036474418</v>
       </c>
       <c r="F8">
-        <v>0.4576577139284481</v>
+        <v>0.2283750310913391</v>
       </c>
       <c r="G8">
-        <v>0.4681102955303373</v>
+        <v>0.1105628727600632</v>
       </c>
       <c r="H8">
-        <v>0.1523476531003496</v>
+        <v>0.2531581054215337</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.65964877153141</v>
+        <v>10.26881479309202</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.269617275109198</v>
+        <v>0.6178174921356714</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1533667851982017</v>
+        <v>0.06320777016391332</v>
       </c>
       <c r="D9">
-        <v>0.06415743966336862</v>
+        <v>0.02561426773939246</v>
       </c>
       <c r="E9">
-        <v>9.695782362860712</v>
+        <v>3.338238346568289</v>
       </c>
       <c r="F9">
-        <v>0.4576577139284481</v>
+        <v>0.2293397681383809</v>
       </c>
       <c r="G9">
-        <v>0.4681102955303373</v>
+        <v>0.1148047355028083</v>
       </c>
       <c r="H9">
-        <v>0.1523476531003496</v>
+        <v>0.2338008682429091</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.65964877153141</v>
+        <v>13.65676080756106</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.269617275109198</v>
+        <v>0.587499423239791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1533667851982017</v>
+        <v>0.07398411508739855</v>
       </c>
       <c r="D10">
-        <v>0.06415743966336862</v>
+        <v>0.03027093521274082</v>
       </c>
       <c r="E10">
-        <v>9.695782362860712</v>
+        <v>3.963694004145964</v>
       </c>
       <c r="F10">
-        <v>0.4576577139284481</v>
+        <v>0.2340236144317487</v>
       </c>
       <c r="G10">
-        <v>0.4681102955303373</v>
+        <v>0.1216440444322444</v>
       </c>
       <c r="H10">
-        <v>0.1523476531003496</v>
+        <v>0.2223988151457945</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.65964877153141</v>
+        <v>16.14776724554412</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.269617275109198</v>
+        <v>0.5789548877175719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1533667851982017</v>
+        <v>0.07891300442634019</v>
       </c>
       <c r="D11">
-        <v>0.06415743966336862</v>
+        <v>0.03238593598028672</v>
       </c>
       <c r="E11">
-        <v>9.695782362860712</v>
+        <v>4.249935042062987</v>
       </c>
       <c r="F11">
-        <v>0.4576577139284481</v>
+        <v>0.2370920917339063</v>
       </c>
       <c r="G11">
-        <v>0.4681102955303373</v>
+        <v>0.1256544006119071</v>
       </c>
       <c r="H11">
-        <v>0.1523476531003496</v>
+        <v>0.2178616542896492</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>36.65964877153141</v>
+        <v>17.28304110489995</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.269617275109198</v>
+        <v>0.578320309781958</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1533667851982017</v>
+        <v>0.08078351785727023</v>
       </c>
       <c r="D12">
-        <v>0.06415743966336862</v>
+        <v>0.03318646972417127</v>
       </c>
       <c r="E12">
-        <v>9.695782362860712</v>
+        <v>4.358623036164659</v>
       </c>
       <c r="F12">
-        <v>0.4576577139284481</v>
+        <v>0.2383952516536993</v>
       </c>
       <c r="G12">
-        <v>0.4681102955303373</v>
+        <v>0.1273100735160853</v>
       </c>
       <c r="H12">
-        <v>0.1523476531003496</v>
+        <v>0.2162402063098057</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.65964877153141</v>
+        <v>17.71338822320882</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.269617275109198</v>
+        <v>0.5785709455612391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1533667851982017</v>
+        <v>0.08038048567837563</v>
       </c>
       <c r="D13">
-        <v>0.06415743966336862</v>
+        <v>0.03301407504123688</v>
       </c>
       <c r="E13">
-        <v>9.695782362860712</v>
+        <v>4.335201219500902</v>
       </c>
       <c r="F13">
-        <v>0.4576577139284481</v>
+        <v>0.2381082099213074</v>
       </c>
       <c r="G13">
-        <v>0.4681102955303373</v>
+        <v>0.1269472736121031</v>
       </c>
       <c r="H13">
-        <v>0.1523476531003496</v>
+        <v>0.2165850615430429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.65964877153141</v>
+        <v>17.62068315726651</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.269617275109198</v>
+        <v>0.5784947532504248</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1533667851982017</v>
+        <v>0.07906681026102547</v>
       </c>
       <c r="D14">
-        <v>0.06415743966336862</v>
+        <v>0.03245180312474361</v>
       </c>
       <c r="E14">
-        <v>9.695782362860712</v>
+        <v>4.258870673859349</v>
       </c>
       <c r="F14">
-        <v>0.4576577139284481</v>
+        <v>0.2371964366533419</v>
       </c>
       <c r="G14">
-        <v>0.4681102955303373</v>
+        <v>0.125787822013919</v>
       </c>
       <c r="H14">
-        <v>0.1523476531003496</v>
+        <v>0.2177263002534744</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>36.65964877153141</v>
+        <v>17.31843627697873</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.269617275109198</v>
+        <v>0.5783309545831514</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1533667851982017</v>
+        <v>0.0782626800987174</v>
       </c>
       <c r="D15">
-        <v>0.06415743966336862</v>
+        <v>0.03210735054354075</v>
       </c>
       <c r="E15">
-        <v>9.695782362860712</v>
+        <v>4.212155879609156</v>
       </c>
       <c r="F15">
-        <v>0.4576577139284481</v>
+        <v>0.2366565287203315</v>
       </c>
       <c r="G15">
-        <v>0.4681102955303373</v>
+        <v>0.125095705445716</v>
       </c>
       <c r="H15">
-        <v>0.1523476531003496</v>
+        <v>0.2184380303120008</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>36.65964877153141</v>
+        <v>17.13336351022025</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.269617275109198</v>
+        <v>0.5782952613929808</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1533667851982017</v>
+        <v>0.07366255542724787</v>
       </c>
       <c r="D16">
-        <v>0.06415743966336862</v>
+        <v>0.03013265666277221</v>
       </c>
       <c r="E16">
-        <v>9.695782362860712</v>
+        <v>3.945026030464419</v>
       </c>
       <c r="F16">
-        <v>0.4576577139284481</v>
+        <v>0.2338424901362117</v>
       </c>
       <c r="G16">
-        <v>0.4681102955303373</v>
+        <v>0.121400706713743</v>
       </c>
       <c r="H16">
-        <v>0.1523476531003496</v>
+        <v>0.2227086783435084</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.65964877153141</v>
+        <v>16.0736285151134</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.269617275109198</v>
+        <v>0.5790637742595379</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1533667851982017</v>
+        <v>0.07084750935196382</v>
       </c>
       <c r="D17">
-        <v>0.06415743966336862</v>
+        <v>0.0289204626289532</v>
       </c>
       <c r="E17">
-        <v>9.695782362860712</v>
+        <v>3.781623163578558</v>
       </c>
       <c r="F17">
-        <v>0.4576577139284481</v>
+        <v>0.232360803251666</v>
       </c>
       <c r="G17">
-        <v>0.4681102955303373</v>
+        <v>0.1193696566403588</v>
       </c>
       <c r="H17">
-        <v>0.1523476531003496</v>
+        <v>0.2254972655784968</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.65964877153141</v>
+        <v>15.42415036523596</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.269617275109198</v>
+        <v>0.5803845368686211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1533667851982017</v>
+        <v>0.06923086675431023</v>
       </c>
       <c r="D18">
-        <v>0.06415743966336862</v>
+        <v>0.02822291867150284</v>
       </c>
       <c r="E18">
-        <v>9.695782362860712</v>
+        <v>3.687796771123601</v>
       </c>
       <c r="F18">
-        <v>0.4576577139284481</v>
+        <v>0.2315964522663592</v>
       </c>
       <c r="G18">
-        <v>0.4681102955303373</v>
+        <v>0.1182856006601867</v>
       </c>
       <c r="H18">
-        <v>0.1523476531003496</v>
+        <v>0.2271621387649532</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.65964877153141</v>
+        <v>15.05077639308075</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.269617275109198</v>
+        <v>0.5814488968449041</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1533667851982017</v>
+        <v>0.06868392193433692</v>
       </c>
       <c r="D19">
-        <v>0.06415743966336862</v>
+        <v>0.02798668391840664</v>
       </c>
       <c r="E19">
-        <v>9.695782362860712</v>
+        <v>3.656054625183629</v>
       </c>
       <c r="F19">
-        <v>0.4576577139284481</v>
+        <v>0.2313525590363312</v>
       </c>
       <c r="G19">
-        <v>0.4681102955303373</v>
+        <v>0.1179327792449385</v>
       </c>
       <c r="H19">
-        <v>0.1523476531003496</v>
+        <v>0.2277362072823479</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.65964877153141</v>
+        <v>14.92438669416242</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.269617275109198</v>
+        <v>0.5818609064967006</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1533667851982017</v>
+        <v>0.07114691581695354</v>
       </c>
       <c r="D20">
-        <v>0.06415743966336862</v>
+        <v>0.02904953534340393</v>
       </c>
       <c r="E20">
-        <v>9.695782362860712</v>
+        <v>3.799000929827514</v>
       </c>
       <c r="F20">
-        <v>0.4576577139284481</v>
+        <v>0.2325093912176968</v>
       </c>
       <c r="G20">
-        <v>0.4681102955303373</v>
+        <v>0.1195771009169277</v>
       </c>
       <c r="H20">
-        <v>0.1523476531003496</v>
+        <v>0.2251940842243556</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.65964877153141</v>
+        <v>15.49326791319982</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.269617275109198</v>
+        <v>0.5802122390720967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1533667851982017</v>
+        <v>0.07945255690142972</v>
       </c>
       <c r="D21">
-        <v>0.06415743966336862</v>
+        <v>0.0326169651321635</v>
       </c>
       <c r="E21">
-        <v>9.695782362860712</v>
+        <v>4.281282405654338</v>
       </c>
       <c r="F21">
-        <v>0.4576577139284481</v>
+        <v>0.2374603629877754</v>
       </c>
       <c r="G21">
-        <v>0.4681102955303373</v>
+        <v>0.1261245987692945</v>
       </c>
       <c r="H21">
-        <v>0.1523476531003496</v>
+        <v>0.2173884405791284</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>36.65964877153141</v>
+        <v>17.40720028478199</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.269617275109198</v>
+        <v>0.5783655530376848</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1533667851982017</v>
+        <v>0.08490448692343477</v>
       </c>
       <c r="D22">
-        <v>0.06415743966336862</v>
+        <v>0.03494638664605532</v>
       </c>
       <c r="E22">
-        <v>9.695782362860712</v>
+        <v>4.598224320828024</v>
       </c>
       <c r="F22">
-        <v>0.4576577139284481</v>
+        <v>0.2415221959962466</v>
       </c>
       <c r="G22">
-        <v>0.4681102955303373</v>
+        <v>0.1312063280704479</v>
       </c>
       <c r="H22">
-        <v>0.1523476531003496</v>
+        <v>0.2128520906321398</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>36.65964877153141</v>
+        <v>18.66072598479235</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.269617275109198</v>
+        <v>0.580031574045023</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1533667851982017</v>
+        <v>0.08199244602381839</v>
       </c>
       <c r="D23">
-        <v>0.06415743966336862</v>
+        <v>0.03370328205691919</v>
       </c>
       <c r="E23">
-        <v>9.695782362860712</v>
+        <v>4.42889009574975</v>
       </c>
       <c r="F23">
-        <v>0.4576577139284481</v>
+        <v>0.2392765802385881</v>
       </c>
       <c r="G23">
-        <v>0.4681102955303373</v>
+        <v>0.1284180462895819</v>
       </c>
       <c r="H23">
-        <v>0.1523476531003496</v>
+        <v>0.2152204182499986</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.65964877153141</v>
+        <v>17.99140224990862</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.269617275109198</v>
+        <v>0.5788716173959756</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1533667851982017</v>
+        <v>0.0710115486732974</v>
       </c>
       <c r="D24">
-        <v>0.06415743966336862</v>
+        <v>0.0289911835632779</v>
       </c>
       <c r="E24">
-        <v>9.695782362860712</v>
+        <v>3.791144083657002</v>
       </c>
       <c r="F24">
-        <v>0.4576577139284481</v>
+        <v>0.2324419425623034</v>
       </c>
       <c r="G24">
-        <v>0.4681102955303373</v>
+        <v>0.1194830554789803</v>
       </c>
       <c r="H24">
-        <v>0.1523476531003496</v>
+        <v>0.2253309606486766</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.65964877153141</v>
+        <v>15.46201981902362</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.269617275109198</v>
+        <v>0.5802891865368167</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1533667851982017</v>
+        <v>0.05926153095522579</v>
       </c>
       <c r="D25">
-        <v>0.06415743966336862</v>
+        <v>0.02389579888082238</v>
       </c>
       <c r="E25">
-        <v>9.695782362860712</v>
+        <v>3.109136322422216</v>
       </c>
       <c r="F25">
-        <v>0.4576577139284481</v>
+        <v>0.2284053134086292</v>
       </c>
       <c r="G25">
-        <v>0.4681102955303373</v>
+        <v>0.1130332819830215</v>
       </c>
       <c r="H25">
-        <v>0.1523476531003496</v>
+        <v>0.2385547963755386</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>36.65964877153141</v>
+        <v>12.7404134071586</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.269617275109198</v>
+        <v>0.5933795397077546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05068189872856976</v>
+        <v>0.1616769101187145</v>
       </c>
       <c r="D2">
-        <v>0.02012915771946666</v>
+        <v>0.06823200235764659</v>
       </c>
       <c r="E2">
-        <v>2.610379717831819</v>
+        <v>10.45639890520803</v>
       </c>
       <c r="F2">
-        <v>0.2280750834697685</v>
+        <v>0.5039688282889401</v>
       </c>
       <c r="G2">
-        <v>0.1107505014102301</v>
+        <v>0.5225600651144333</v>
       </c>
       <c r="H2">
-        <v>0.2501708476293345</v>
+        <v>0.1697922908937812</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.73724422489431</v>
+        <v>39.24668126809956</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6121367570049614</v>
+        <v>1.422001161067982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04490780082399226</v>
+        <v>0.1380146391769159</v>
       </c>
       <c r="D3">
-        <v>0.01756561300378223</v>
+        <v>0.05701327992228045</v>
       </c>
       <c r="E3">
-        <v>2.273759006768444</v>
+        <v>8.414305971290958</v>
       </c>
       <c r="F3">
-        <v>0.2293894188412864</v>
+        <v>0.3814742330532965</v>
       </c>
       <c r="G3">
-        <v>0.1106087863054199</v>
+        <v>0.3794771759761701</v>
       </c>
       <c r="H3">
-        <v>0.2591599992339155</v>
+        <v>0.1253153106116045</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.377944501364027</v>
+        <v>32.20136725248216</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.630138357998419</v>
+        <v>1.024347361511147</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04138109081412722</v>
+        <v>0.1240563106073438</v>
       </c>
       <c r="D4">
-        <v>0.01598587862493162</v>
+        <v>0.05082762522189199</v>
       </c>
       <c r="E4">
-        <v>2.067548363690577</v>
+        <v>7.354330254228614</v>
       </c>
       <c r="F4">
-        <v>0.2309196464532945</v>
+        <v>0.3210564890025509</v>
       </c>
       <c r="G4">
-        <v>0.1111721518862012</v>
+        <v>0.3100242164575704</v>
       </c>
       <c r="H4">
-        <v>0.2652122288241472</v>
+        <v>0.1057054617196087</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.541851201692111</v>
+        <v>28.42176458092626</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6436719241420832</v>
+        <v>0.8353590577144558</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03994844715647616</v>
+        <v>0.118470299809843</v>
       </c>
       <c r="D5">
-        <v>0.01534066124539635</v>
+        <v>0.04841351870447852</v>
       </c>
       <c r="E5">
-        <v>1.983608590550631</v>
+        <v>6.952280405711605</v>
       </c>
       <c r="F5">
-        <v>0.2317199245975772</v>
+        <v>0.2989547849221168</v>
       </c>
       <c r="G5">
-        <v>0.1115590481862014</v>
+        <v>0.2848058334786074</v>
       </c>
       <c r="H5">
-        <v>0.267809896077317</v>
+        <v>0.09903940238489639</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.200687272836262</v>
+        <v>26.96687670633878</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6497919388811226</v>
+        <v>0.7676632028575483</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03971082616271815</v>
+        <v>0.1175480478686666</v>
       </c>
       <c r="D6">
-        <v>0.01523343446375947</v>
+        <v>0.04801778719151883</v>
       </c>
       <c r="E6">
-        <v>1.969675319003073</v>
+        <v>6.886973649395031</v>
       </c>
       <c r="F6">
-        <v>0.2318633328128215</v>
+        <v>0.295413388238984</v>
       </c>
       <c r="G6">
-        <v>0.1116326138700074</v>
+        <v>0.2807745584578498</v>
       </c>
       <c r="H6">
-        <v>0.2682490920135976</v>
+        <v>0.09800056220761633</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.144008028181418</v>
+        <v>26.72946000892011</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6508441587031939</v>
+        <v>0.7568962443102123</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04136175158880917</v>
+        <v>0.1239806030942674</v>
       </c>
       <c r="D7">
-        <v>0.0159771829486246</v>
+        <v>0.0507946987739345</v>
       </c>
       <c r="E7">
-        <v>2.066415980768284</v>
+        <v>7.348803874701559</v>
       </c>
       <c r="F7">
-        <v>0.2309297306026039</v>
+        <v>0.3207493387958067</v>
       </c>
       <c r="G7">
-        <v>0.1111767408630158</v>
+        <v>0.3096730550662201</v>
       </c>
       <c r="H7">
-        <v>0.2652467335853359</v>
+        <v>0.1056107651821137</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.537252060664059</v>
+        <v>28.40184510857836</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6437520358424251</v>
+        <v>0.834412588359271</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04868702734421504</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D8">
-        <v>0.01924641106297287</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E8">
-        <v>2.494197036474418</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F8">
-        <v>0.2283750310913391</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G8">
-        <v>0.1105628727600632</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H8">
-        <v>0.2531581054215337</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.26881479309202</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6178174921356714</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06320777016391332</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D9">
-        <v>0.02561426773939246</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E9">
-        <v>3.338238346568289</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F9">
-        <v>0.2293397681383809</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G9">
-        <v>0.1148047355028083</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H9">
-        <v>0.2338008682429091</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.65676080756106</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.587499423239791</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07398411508739855</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D10">
-        <v>0.03027093521274082</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E10">
-        <v>3.963694004145964</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F10">
-        <v>0.2340236144317487</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G10">
-        <v>0.1216440444322444</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H10">
-        <v>0.2223988151457945</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.14776724554412</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5789548877175719</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07891300442634019</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D11">
-        <v>0.03238593598028672</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E11">
-        <v>4.249935042062987</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F11">
-        <v>0.2370920917339063</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G11">
-        <v>0.1256544006119071</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H11">
-        <v>0.2178616542896492</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.28304110489995</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.578320309781958</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08078351785727023</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D12">
-        <v>0.03318646972417127</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E12">
-        <v>4.358623036164659</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F12">
-        <v>0.2383952516536993</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G12">
-        <v>0.1273100735160853</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H12">
-        <v>0.2162402063098057</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.71338822320882</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5785709455612391</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08038048567837563</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D13">
-        <v>0.03301407504123688</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E13">
-        <v>4.335201219500902</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F13">
-        <v>0.2381082099213074</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G13">
-        <v>0.1269472736121031</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H13">
-        <v>0.2165850615430429</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.62068315726651</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5784947532504248</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07906681026102547</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D14">
-        <v>0.03245180312474361</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E14">
-        <v>4.258870673859349</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F14">
-        <v>0.2371964366533419</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G14">
-        <v>0.125787822013919</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H14">
-        <v>0.2177263002534744</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.31843627697873</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5783309545831514</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0782626800987174</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D15">
-        <v>0.03210735054354075</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E15">
-        <v>4.212155879609156</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F15">
-        <v>0.2366565287203315</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G15">
-        <v>0.125095705445716</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H15">
-        <v>0.2184380303120008</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.13336351022025</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5782952613929808</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07366255542724787</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D16">
-        <v>0.03013265666277221</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E16">
-        <v>3.945026030464419</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F16">
-        <v>0.2338424901362117</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G16">
-        <v>0.121400706713743</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H16">
-        <v>0.2227086783435084</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.0736285151134</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5790637742595379</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07084750935196382</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D17">
-        <v>0.0289204626289532</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E17">
-        <v>3.781623163578558</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F17">
-        <v>0.232360803251666</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G17">
-        <v>0.1193696566403588</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H17">
-        <v>0.2254972655784968</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.42415036523596</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5803845368686211</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06923086675431023</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D18">
-        <v>0.02822291867150284</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E18">
-        <v>3.687796771123601</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F18">
-        <v>0.2315964522663592</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G18">
-        <v>0.1182856006601867</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H18">
-        <v>0.2271621387649532</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.05077639308075</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5814488968449041</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06868392193433692</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D19">
-        <v>0.02798668391840664</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E19">
-        <v>3.656054625183629</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F19">
-        <v>0.2313525590363312</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G19">
-        <v>0.1179327792449385</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H19">
-        <v>0.2277362072823479</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.92438669416242</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5818609064967006</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07114691581695354</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D20">
-        <v>0.02904953534340393</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E20">
-        <v>3.799000929827514</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F20">
-        <v>0.2325093912176968</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G20">
-        <v>0.1195771009169277</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H20">
-        <v>0.2251940842243556</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.49326791319982</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5802122390720967</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07945255690142972</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D21">
-        <v>0.0326169651321635</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E21">
-        <v>4.281282405654338</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F21">
-        <v>0.2374603629877754</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G21">
-        <v>0.1261245987692945</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H21">
-        <v>0.2173884405791284</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.40720028478199</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5783655530376848</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08490448692343477</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D22">
-        <v>0.03494638664605532</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E22">
-        <v>4.598224320828024</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F22">
-        <v>0.2415221959962466</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G22">
-        <v>0.1312063280704479</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H22">
-        <v>0.2128520906321398</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.66072598479235</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.580031574045023</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08199244602381839</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D23">
-        <v>0.03370328205691919</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E23">
-        <v>4.42889009574975</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F23">
-        <v>0.2392765802385881</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G23">
-        <v>0.1284180462895819</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H23">
-        <v>0.2152204182499986</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.99140224990862</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5788716173959756</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0710115486732974</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D24">
-        <v>0.0289911835632779</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E24">
-        <v>3.791144083657002</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F24">
-        <v>0.2324419425623034</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G24">
-        <v>0.1194830554789803</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H24">
-        <v>0.2253309606486766</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.46201981902362</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5802891865368167</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05926153095522579</v>
+        <v>0.1533667851984148</v>
       </c>
       <c r="D25">
-        <v>0.02389579888082238</v>
+        <v>0.06415743966339704</v>
       </c>
       <c r="E25">
-        <v>3.109136322422216</v>
+        <v>9.695782362860854</v>
       </c>
       <c r="F25">
-        <v>0.2284053134086292</v>
+        <v>0.4576577139284694</v>
       </c>
       <c r="G25">
-        <v>0.1130332819830215</v>
+        <v>0.4681102955302876</v>
       </c>
       <c r="H25">
-        <v>0.2385547963755386</v>
+        <v>0.1523476531003496</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.7404134071586</v>
+        <v>36.65964877153141</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5933795397077546</v>
+        <v>1.269617275109198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616769101187145</v>
+        <v>0.0704434081453158</v>
       </c>
       <c r="D2">
-        <v>0.06823200235764659</v>
+        <v>0.03910798467640575</v>
       </c>
       <c r="E2">
-        <v>10.45639890520803</v>
+        <v>0.03930416396621794</v>
       </c>
       <c r="F2">
-        <v>0.5039688282889401</v>
+        <v>2.763079771330553</v>
       </c>
       <c r="G2">
-        <v>0.5225600651144333</v>
+        <v>2.842743594703933</v>
       </c>
       <c r="H2">
-        <v>0.1697922908937812</v>
+        <v>6.930418937978189E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001261594479228023</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.582638601128508</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.084932879209376</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06448150008931774</v>
       </c>
       <c r="M2">
-        <v>39.24668126809956</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04448736235896256</v>
       </c>
       <c r="O2">
-        <v>1.422001161067982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>3.863122746868811</v>
+      </c>
+      <c r="P2">
+        <v>3.517522553620921</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1380146391769159</v>
+        <v>0.06305940130483023</v>
       </c>
       <c r="D3">
-        <v>0.05701327992228045</v>
+        <v>0.03515985371263497</v>
       </c>
       <c r="E3">
-        <v>8.414305971290958</v>
+        <v>0.03686771170750625</v>
       </c>
       <c r="F3">
-        <v>0.3814742330532965</v>
+        <v>2.494653691200938</v>
       </c>
       <c r="G3">
-        <v>0.3794771759761701</v>
+        <v>2.537696866221381</v>
       </c>
       <c r="H3">
-        <v>0.1253153106116045</v>
+        <v>0.00105260699558607</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004176405941067607</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.440183263592843</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.879962888074914</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06076795706471594</v>
       </c>
       <c r="M3">
-        <v>32.20136725248216</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04302071546957187</v>
       </c>
       <c r="O3">
-        <v>1.024347361511147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.377747184130968</v>
+      </c>
+      <c r="P3">
+        <v>3.156141370325315</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1240563106073438</v>
+        <v>0.05863373178718234</v>
       </c>
       <c r="D4">
-        <v>0.05082762522189199</v>
+        <v>0.03272818904571295</v>
       </c>
       <c r="E4">
-        <v>7.354330254228614</v>
+        <v>0.03536243634072012</v>
       </c>
       <c r="F4">
-        <v>0.3210564890025509</v>
+        <v>2.331216381823197</v>
       </c>
       <c r="G4">
-        <v>0.3100242164575704</v>
+        <v>2.351734790483903</v>
       </c>
       <c r="H4">
-        <v>0.1057054617196087</v>
+        <v>0.00227325698837455</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006966933725442992</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.353462971970146</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.754762502529843</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05846690252099718</v>
       </c>
       <c r="M4">
-        <v>28.42176458092626</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04207841043383631</v>
       </c>
       <c r="O4">
-        <v>0.8353590577144558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>3.07867282359976</v>
+      </c>
+      <c r="P4">
+        <v>2.934829134163493</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.118470299809843</v>
+        <v>0.05688313471640249</v>
       </c>
       <c r="D5">
-        <v>0.04841351870447852</v>
+        <v>0.03168452229988006</v>
       </c>
       <c r="E5">
-        <v>6.952280405711605</v>
+        <v>0.03474110196048219</v>
       </c>
       <c r="F5">
-        <v>0.2989547849221168</v>
+        <v>2.262876574510784</v>
       </c>
       <c r="G5">
-        <v>0.2848058334786074</v>
+        <v>2.273882334821479</v>
       </c>
       <c r="H5">
-        <v>0.09903940238489639</v>
+        <v>0.002922072515954222</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001069784388472605</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.317115820416262</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.701889962843424</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05750871251739609</v>
       </c>
       <c r="M5">
-        <v>26.96687670633878</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04163535543068342</v>
       </c>
       <c r="O5">
-        <v>0.7676632028575483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.95485025803444</v>
+      </c>
+      <c r="P5">
+        <v>2.845491971272537</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1175480478686666</v>
+        <v>0.05663274132534468</v>
       </c>
       <c r="D6">
-        <v>0.04801778719151883</v>
+        <v>0.03144972201189589</v>
       </c>
       <c r="E6">
-        <v>6.886973649395031</v>
+        <v>0.03463194308714179</v>
       </c>
       <c r="F6">
-        <v>0.295413388238984</v>
+        <v>2.249063029056799</v>
       </c>
       <c r="G6">
-        <v>0.2807745584578498</v>
+        <v>2.258099337295789</v>
       </c>
       <c r="H6">
-        <v>0.09800056220761633</v>
+        <v>0.003046335000579603</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001238273518052502</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.309661586775462</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.690697406430402</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05733260754919733</v>
       </c>
       <c r="M6">
-        <v>26.72946000892011</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04150189643037905</v>
       </c>
       <c r="O6">
-        <v>0.7568962443102123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.932231365786421</v>
+      </c>
+      <c r="P6">
+        <v>2.831542764679227</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1239806030942674</v>
+        <v>0.0587154533262364</v>
       </c>
       <c r="D7">
-        <v>0.0507946987739345</v>
+        <v>0.03254543407255994</v>
       </c>
       <c r="E7">
-        <v>7.348803874701559</v>
+        <v>0.03533830710844388</v>
       </c>
       <c r="F7">
-        <v>0.3207493387958067</v>
+        <v>2.323489614493198</v>
       </c>
       <c r="G7">
-        <v>0.3096730550662201</v>
+        <v>2.342811235911682</v>
       </c>
       <c r="H7">
-        <v>0.1056107651821137</v>
+        <v>0.002300045321423028</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009398006182816943</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.34905901185553</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.747414143011113</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05840871473396314</v>
       </c>
       <c r="M7">
-        <v>28.40184510857836</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04190926819918595</v>
       </c>
       <c r="O7">
-        <v>0.834412588359271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>3.071406745056336</v>
+      </c>
+      <c r="P7">
+        <v>2.936031259331997</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1533667851984148</v>
+        <v>0.0680091879484408</v>
       </c>
       <c r="D8">
-        <v>0.06415743966339704</v>
+        <v>0.03752004115689545</v>
       </c>
       <c r="E8">
-        <v>9.695782362860854</v>
+        <v>0.03844450401735777</v>
       </c>
       <c r="F8">
-        <v>0.4576577139284694</v>
+        <v>2.661088231374862</v>
       </c>
       <c r="G8">
-        <v>0.4681102955302876</v>
+        <v>2.726687808489316</v>
       </c>
       <c r="H8">
-        <v>0.1523476531003496</v>
+        <v>0.0002824957549880658</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001052024470864055</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.528106345313091</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.005207561412035</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06314376184062276</v>
       </c>
       <c r="M8">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04377101628261038</v>
       </c>
       <c r="O8">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>3.68846640769965</v>
+      </c>
+      <c r="P8">
+        <v>3.396021840539248</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1533667851984148</v>
+        <v>0.08717229797011328</v>
       </c>
       <c r="D9">
-        <v>0.06415743966339704</v>
+        <v>0.04755991952718119</v>
       </c>
       <c r="E9">
-        <v>9.695782362860854</v>
+        <v>0.04453340430389208</v>
       </c>
       <c r="F9">
-        <v>0.4576577139284694</v>
+        <v>3.349145393052027</v>
       </c>
       <c r="G9">
-        <v>0.4681102955302876</v>
+        <v>3.507434171967049</v>
       </c>
       <c r="H9">
-        <v>0.1523476531003496</v>
+        <v>0.001714934177181382</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007939118960100799</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.893688298172123</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.529858986289014</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07242617618373659</v>
       </c>
       <c r="M9">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04738263580569857</v>
       </c>
       <c r="O9">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.901216802213156</v>
+      </c>
+      <c r="P9">
+        <v>4.298928780611561</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1533667851984148</v>
+        <v>0.1023379512551728</v>
       </c>
       <c r="D10">
-        <v>0.06415743966339704</v>
+        <v>0.0553664545539192</v>
       </c>
       <c r="E10">
-        <v>9.695782362860854</v>
+        <v>0.04964213628730541</v>
       </c>
       <c r="F10">
-        <v>0.4576577139284694</v>
+        <v>3.826222026717716</v>
       </c>
       <c r="G10">
-        <v>0.4681102955302876</v>
+        <v>4.052097352012112</v>
       </c>
       <c r="H10">
-        <v>0.1523476531003496</v>
+        <v>0.006712733053060749</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01802235413128717</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.148261652252273</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.891149466097218</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07911468947308276</v>
       </c>
       <c r="M10">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05117921212039533</v>
       </c>
       <c r="O10">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>5.747292301595849</v>
+      </c>
+      <c r="P10">
+        <v>4.98452217677692</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1533667851984148</v>
+        <v>0.10971726747918</v>
       </c>
       <c r="D11">
-        <v>0.06415743966339704</v>
+        <v>0.06299591604127386</v>
       </c>
       <c r="E11">
-        <v>9.695782362860854</v>
+        <v>0.05896323502688006</v>
       </c>
       <c r="F11">
-        <v>0.4576577139284694</v>
+        <v>3.71089313351203</v>
       </c>
       <c r="G11">
-        <v>0.4681102955302876</v>
+        <v>3.962049022756219</v>
       </c>
       <c r="H11">
-        <v>0.1523476531003496</v>
+        <v>0.02610864197724538</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02154481106158723</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.097088643063842</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.804463697493148</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08508010167648727</v>
       </c>
       <c r="M11">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06953639642021869</v>
       </c>
       <c r="O11">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>5.7819795485822</v>
+      </c>
+      <c r="P11">
+        <v>5.451203792904948</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1533667851984148</v>
+        <v>0.1129470457966057</v>
       </c>
       <c r="D12">
-        <v>0.06415743966339704</v>
+        <v>0.06835051484283383</v>
       </c>
       <c r="E12">
-        <v>9.695782362860854</v>
+        <v>0.06827220213489404</v>
       </c>
       <c r="F12">
-        <v>0.4576577139284694</v>
+        <v>3.523130129152349</v>
       </c>
       <c r="G12">
-        <v>0.4681102955302876</v>
+        <v>3.782503806689419</v>
       </c>
       <c r="H12">
-        <v>0.1523476531003496</v>
+        <v>0.0645007061830043</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02176948467286977</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.005578557570232</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.665475711181912</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09483881308507591</v>
       </c>
       <c r="M12">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0909517901802559</v>
       </c>
       <c r="O12">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.638250440465356</v>
+      </c>
+      <c r="P12">
+        <v>5.702206304884498</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1533667851984148</v>
+        <v>0.1132620051983366</v>
       </c>
       <c r="D13">
-        <v>0.06415743966339704</v>
+        <v>0.07190292814781429</v>
       </c>
       <c r="E13">
-        <v>9.695782362860854</v>
+        <v>0.07794091842451678</v>
       </c>
       <c r="F13">
-        <v>0.4576577139284694</v>
+        <v>3.258977567676283</v>
       </c>
       <c r="G13">
-        <v>0.4681102955302876</v>
+        <v>3.512068625393994</v>
       </c>
       <c r="H13">
-        <v>0.1523476531003496</v>
+        <v>0.1190461024347513</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01961308823306052</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.871913162140942</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.468455118964442</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.107848643916185</v>
       </c>
       <c r="M13">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1153532114539502</v>
       </c>
       <c r="O13">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>5.341653845182179</v>
+      </c>
+      <c r="P13">
+        <v>5.802761784445522</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1533667851984148</v>
+        <v>0.1123300237039331</v>
       </c>
       <c r="D14">
-        <v>0.06415743966339704</v>
+        <v>0.07350818161541639</v>
       </c>
       <c r="E14">
-        <v>9.695782362860854</v>
+        <v>0.08510028532949576</v>
       </c>
       <c r="F14">
-        <v>0.4576577139284694</v>
+        <v>3.040003834947782</v>
       </c>
       <c r="G14">
-        <v>0.4681102955302876</v>
+        <v>3.281803963388256</v>
       </c>
       <c r="H14">
-        <v>0.1523476531003496</v>
+        <v>0.1672508364865877</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01724378788885872</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.759292044505656</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.30421333262052</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1191319440555176</v>
       </c>
       <c r="M14">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1342212002943057</v>
       </c>
       <c r="O14">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.065062972783778</v>
+      </c>
+      <c r="P14">
+        <v>5.80547341870988</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1533667851984148</v>
+        <v>0.1115501395479583</v>
       </c>
       <c r="D15">
-        <v>0.06415743966339704</v>
+        <v>0.07337913670438212</v>
       </c>
       <c r="E15">
-        <v>9.695782362860854</v>
+        <v>0.0865606055372119</v>
       </c>
       <c r="F15">
-        <v>0.4576577139284694</v>
+        <v>2.968601552531624</v>
       </c>
       <c r="G15">
-        <v>0.4681102955302876</v>
+        <v>3.204227946264695</v>
       </c>
       <c r="H15">
-        <v>0.1523476531003496</v>
+        <v>0.1792762911621537</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01630251187827536</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.721846392282913</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.249924790763515</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1217871408685198</v>
       </c>
       <c r="M15">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1383174741104654</v>
       </c>
       <c r="O15">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>4.964063341954699</v>
+      </c>
+      <c r="P15">
+        <v>5.773991768189774</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1533667851984148</v>
+        <v>0.1049398439299338</v>
       </c>
       <c r="D16">
-        <v>0.06415743966339704</v>
+        <v>0.06897256153668252</v>
       </c>
       <c r="E16">
-        <v>9.695782362860854</v>
+        <v>0.08202316104639351</v>
       </c>
       <c r="F16">
-        <v>0.4576577139284694</v>
+        <v>2.819515522658946</v>
       </c>
       <c r="G16">
-        <v>0.4681102955302876</v>
+        <v>3.026733110373698</v>
       </c>
       <c r="H16">
-        <v>0.1523476531003496</v>
+        <v>0.1645530963561868</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01228922377407748</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.640169230506558</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.135804282730518</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1159605527199759</v>
       </c>
       <c r="M16">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1305866636338067</v>
       </c>
       <c r="O16">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>4.666319010917022</v>
+      </c>
+      <c r="P16">
+        <v>5.453471890475896</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1533667851984148</v>
+        <v>0.1003481061077451</v>
       </c>
       <c r="D17">
-        <v>0.06415743966339704</v>
+        <v>0.06476001799139652</v>
       </c>
       <c r="E17">
-        <v>9.695782362860854</v>
+        <v>0.07460263984705762</v>
       </c>
       <c r="F17">
-        <v>0.4576577139284694</v>
+        <v>2.820046471543094</v>
       </c>
       <c r="G17">
-        <v>0.4681102955302876</v>
+        <v>3.011492807438543</v>
       </c>
       <c r="H17">
-        <v>0.1523476531003496</v>
+        <v>0.1259110313116878</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0105432433969197</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.636715900269451</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.134288495032749</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1050290818771593</v>
       </c>
       <c r="M17">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1143130826898329</v>
       </c>
       <c r="O17">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>4.583371319695132</v>
+      </c>
+      <c r="P17">
+        <v>5.207469344987487</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1533667851984148</v>
+        <v>0.09689511359004044</v>
       </c>
       <c r="D18">
-        <v>0.06415743966339704</v>
+        <v>0.06050302138018537</v>
       </c>
       <c r="E18">
-        <v>9.695782362860854</v>
+        <v>0.06499827542853254</v>
       </c>
       <c r="F18">
-        <v>0.4576577139284694</v>
+        <v>2.955109028384015</v>
       </c>
       <c r="G18">
-        <v>0.4681102955302876</v>
+        <v>3.140394759264126</v>
       </c>
       <c r="H18">
-        <v>0.1523476531003496</v>
+        <v>0.07295532331799848</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01000445334439881</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.703176708691331</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.235117264628272</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09123385195566058</v>
       </c>
       <c r="M18">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09213306859965797</v>
       </c>
       <c r="O18">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>4.679838653120811</v>
+      </c>
+      <c r="P18">
+        <v>4.996825585446345</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1533667851984148</v>
+        <v>0.09539823443174811</v>
       </c>
       <c r="D19">
-        <v>0.06415743966339704</v>
+        <v>0.05625523562326862</v>
       </c>
       <c r="E19">
-        <v>9.695782362860854</v>
+        <v>0.05593740541612746</v>
       </c>
       <c r="F19">
-        <v>0.4576577139284694</v>
+        <v>3.180178688079224</v>
       </c>
       <c r="G19">
-        <v>0.4681102955302876</v>
+        <v>3.365035178337422</v>
       </c>
       <c r="H19">
-        <v>0.1523476531003496</v>
+        <v>0.02824862583722165</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01087854665714882</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.815480445352335</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.401979994471191</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08042655332314474</v>
       </c>
       <c r="M19">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07016478972894191</v>
       </c>
       <c r="O19">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>4.904672515154289</v>
+      </c>
+      <c r="P19">
+        <v>4.836972269753574</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1533667851984148</v>
+        <v>0.09860963206919848</v>
       </c>
       <c r="D20">
-        <v>0.06415743966339704</v>
+        <v>0.05276829045980236</v>
       </c>
       <c r="E20">
-        <v>9.695782362860854</v>
+        <v>0.04826348945844749</v>
       </c>
       <c r="F20">
-        <v>0.4576577139284694</v>
+        <v>3.676337750034378</v>
       </c>
       <c r="G20">
-        <v>0.4681102955302876</v>
+        <v>3.880860752827971</v>
       </c>
       <c r="H20">
-        <v>0.1523476531003496</v>
+        <v>0.005002249818068627</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01546397682130785</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.067438523525681</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.773022928425121</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07719728751033195</v>
       </c>
       <c r="M20">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04969904399513325</v>
       </c>
       <c r="O20">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>5.505555830941006</v>
+      </c>
+      <c r="P20">
+        <v>4.812658643846817</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1533667851984148</v>
+        <v>0.1107146862516828</v>
       </c>
       <c r="D21">
-        <v>0.06415743966339704</v>
+        <v>0.05816512869295565</v>
       </c>
       <c r="E21">
-        <v>9.695782362860854</v>
+        <v>0.05131526622408966</v>
       </c>
       <c r="F21">
-        <v>0.4576577139284694</v>
+        <v>4.109824259428194</v>
       </c>
       <c r="G21">
-        <v>0.4681102955302876</v>
+        <v>4.367785130270988</v>
       </c>
       <c r="H21">
-        <v>0.1523476531003496</v>
+        <v>0.01046045983831125</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02540989453707798</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.296945130363667</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.100829211853593</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08269117259392988</v>
       </c>
       <c r="M21">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05046780703700193</v>
       </c>
       <c r="O21">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>6.217928782656116</v>
+      </c>
+      <c r="P21">
+        <v>5.313036199464364</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1533667851984148</v>
+        <v>0.1188170349848043</v>
       </c>
       <c r="D22">
-        <v>0.06415743966339704</v>
+        <v>0.06219702061049048</v>
       </c>
       <c r="E22">
-        <v>9.695782362860854</v>
+        <v>0.05366654288854811</v>
       </c>
       <c r="F22">
-        <v>0.4576577139284694</v>
+        <v>4.387314335013201</v>
       </c>
       <c r="G22">
-        <v>0.4681102955302876</v>
+        <v>4.681754789589831</v>
       </c>
       <c r="H22">
-        <v>0.1523476531003496</v>
+        <v>0.01503848951906384</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.03292625890873957</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.444849103092395</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.31239899141444</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08632090115497215</v>
       </c>
       <c r="M22">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.05185466068206779</v>
       </c>
       <c r="O22">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>6.671455066036685</v>
+      </c>
+      <c r="P22">
+        <v>5.646449612486265</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1533667851984148</v>
+        <v>0.1143332316298711</v>
       </c>
       <c r="D23">
-        <v>0.06415743966339704</v>
+        <v>0.0602558500913446</v>
       </c>
       <c r="E23">
-        <v>9.695782362860854</v>
+        <v>0.05242805652006499</v>
       </c>
       <c r="F23">
-        <v>0.4576577139284694</v>
+        <v>4.247343893897636</v>
       </c>
       <c r="G23">
-        <v>0.4681102955302876</v>
+        <v>4.523651190292242</v>
       </c>
       <c r="H23">
-        <v>0.1523476531003496</v>
+        <v>0.01254478529823377</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02863144317974609</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.37058804164144</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.207526788362671</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08443676745270556</v>
       </c>
       <c r="M23">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.05131451095751061</v>
       </c>
       <c r="O23">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6.436373936052604</v>
+      </c>
+      <c r="P23">
+        <v>5.465409220743936</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1533667851984148</v>
+        <v>0.09824210539468581</v>
       </c>
       <c r="D24">
-        <v>0.06415743966339704</v>
+        <v>0.05262929631160773</v>
       </c>
       <c r="E24">
-        <v>9.695782362860854</v>
+        <v>0.04777636863850887</v>
       </c>
       <c r="F24">
-        <v>0.4576577139284694</v>
+        <v>3.711617347803525</v>
       </c>
       <c r="G24">
-        <v>0.4681102955302876</v>
+        <v>3.917624273424053</v>
       </c>
       <c r="H24">
-        <v>0.1523476531003496</v>
+        <v>0.005038105128950643</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01520445859231767</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.085797658006328</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.802197979855009</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07732872731321816</v>
       </c>
       <c r="M24">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04888556502481123</v>
       </c>
       <c r="O24">
-        <v>1.269617275109198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>5.535177730722154</v>
+      </c>
+      <c r="P24">
+        <v>4.786787351190355</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1533667851984148</v>
+        <v>0.08202058169289828</v>
       </c>
       <c r="D25">
-        <v>0.06415743966339704</v>
+        <v>0.04452347574783744</v>
       </c>
       <c r="E25">
-        <v>9.695782362860854</v>
+        <v>0.04285388648330013</v>
       </c>
       <c r="F25">
-        <v>0.4576577139284694</v>
+        <v>3.148468603670324</v>
       </c>
       <c r="G25">
-        <v>0.4681102955302876</v>
+        <v>3.279624432288131</v>
       </c>
       <c r="H25">
-        <v>0.1523476531003496</v>
+        <v>0.0006574963459207162</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005542044492946374</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.786512039493772</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.374539437908055</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06982723863255513</v>
       </c>
       <c r="M25">
-        <v>36.65964877153141</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04614145728520569</v>
       </c>
       <c r="O25">
-        <v>1.269617275109198</v>
+        <v>4.563365712878408</v>
+      </c>
+      <c r="P25">
+        <v>4.058481520666419</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0704434081453158</v>
+        <v>0.0812845986480184</v>
       </c>
       <c r="D2">
-        <v>0.03910798467640575</v>
+        <v>0.02891074619515521</v>
       </c>
       <c r="E2">
-        <v>0.03930416396621794</v>
+        <v>0.03843655973930016</v>
       </c>
       <c r="F2">
-        <v>2.763079771330553</v>
+        <v>2.240136177097824</v>
       </c>
       <c r="G2">
-        <v>2.842743594703933</v>
+        <v>2.214122787579072</v>
       </c>
       <c r="H2">
-        <v>6.930418937978189E-05</v>
+        <v>0.0001535381882944442</v>
       </c>
       <c r="I2">
-        <v>0.001261594479228023</v>
+        <v>0.001257457416385499</v>
       </c>
       <c r="J2">
-        <v>1.582638601128508</v>
+        <v>1.332257221320873</v>
       </c>
       <c r="K2">
-        <v>2.084932879209376</v>
+        <v>1.576300637208931</v>
       </c>
       <c r="L2">
-        <v>0.06448150008931774</v>
+        <v>0.6593054290513578</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5328012308730976</v>
       </c>
       <c r="N2">
-        <v>0.04448736235896256</v>
+        <v>0.06123698485551188</v>
       </c>
       <c r="O2">
-        <v>3.863122746868811</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.517522553620921</v>
+        <v>0.04475818557524924</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>3.432526093731425</v>
+      </c>
+      <c r="R2">
+        <v>3.708545609903894</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06305940130483023</v>
+        <v>0.0701956425918695</v>
       </c>
       <c r="D3">
-        <v>0.03515985371263497</v>
+        <v>0.02709807850167323</v>
       </c>
       <c r="E3">
-        <v>0.03686771170750625</v>
+        <v>0.03648095084246172</v>
       </c>
       <c r="F3">
-        <v>2.494653691200938</v>
+        <v>2.041401619288138</v>
       </c>
       <c r="G3">
-        <v>2.537696866221381</v>
+        <v>1.993496275648511</v>
       </c>
       <c r="H3">
-        <v>0.00105260699558607</v>
+        <v>0.001072665699433983</v>
       </c>
       <c r="I3">
-        <v>0.0004176405941067607</v>
+        <v>0.0005253296690934661</v>
       </c>
       <c r="J3">
-        <v>1.440183263592843</v>
+        <v>1.222639044446055</v>
       </c>
       <c r="K3">
-        <v>1.879962888074914</v>
+        <v>1.437860850331461</v>
       </c>
       <c r="L3">
-        <v>0.06076795706471594</v>
+        <v>0.6220819256879153</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4661663299132499</v>
       </c>
       <c r="N3">
-        <v>0.04302071546957187</v>
+        <v>0.05807501373287316</v>
       </c>
       <c r="O3">
-        <v>3.377747184130968</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.156141370325315</v>
+        <v>0.04527707445183893</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>3.010248184661918</v>
+      </c>
+      <c r="R3">
+        <v>3.317461157796998</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05863373178718234</v>
+        <v>0.06360168978316239</v>
       </c>
       <c r="D4">
-        <v>0.03272818904571295</v>
+        <v>0.0259689794585114</v>
       </c>
       <c r="E4">
-        <v>0.03536243634072012</v>
+        <v>0.03526474207165808</v>
       </c>
       <c r="F4">
-        <v>2.331216381823197</v>
+        <v>1.919799496175386</v>
       </c>
       <c r="G4">
-        <v>2.351734790483903</v>
+        <v>1.858661899118033</v>
       </c>
       <c r="H4">
-        <v>0.00227325698837455</v>
+        <v>0.002083835974955095</v>
       </c>
       <c r="I4">
-        <v>0.0006966933725442992</v>
+        <v>0.0006066668304414158</v>
       </c>
       <c r="J4">
-        <v>1.353462971970146</v>
+        <v>1.155134451239348</v>
       </c>
       <c r="K4">
-        <v>1.754762502529843</v>
+        <v>1.352726675703138</v>
       </c>
       <c r="L4">
-        <v>0.05846690252099718</v>
+        <v>0.5984360714303278</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4265374978217267</v>
       </c>
       <c r="N4">
-        <v>0.04207841043383631</v>
+        <v>0.05610368983970027</v>
       </c>
       <c r="O4">
-        <v>3.07867282359976</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.934829134163493</v>
+        <v>0.04559770347518111</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.749371684059795</v>
+      </c>
+      <c r="R4">
+        <v>3.077995993882581</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05688313471640249</v>
+        <v>0.0611085977119501</v>
       </c>
       <c r="D5">
-        <v>0.03168452229988006</v>
+        <v>0.02547177959141678</v>
       </c>
       <c r="E5">
-        <v>0.03474110196048219</v>
+        <v>0.03476137342874885</v>
       </c>
       <c r="F5">
-        <v>2.262876574510784</v>
+        <v>1.868618553403707</v>
       </c>
       <c r="G5">
-        <v>2.273882334821479</v>
+        <v>1.801898786077714</v>
       </c>
       <c r="H5">
-        <v>0.002922072515954222</v>
+        <v>0.002606707557812449</v>
       </c>
       <c r="I5">
-        <v>0.001069784388472605</v>
+        <v>0.0008483521259332605</v>
       </c>
       <c r="J5">
-        <v>1.317115820416262</v>
+        <v>1.126563714912947</v>
       </c>
       <c r="K5">
-        <v>1.701889962843424</v>
+        <v>1.316382711882184</v>
       </c>
       <c r="L5">
-        <v>0.05750871251739609</v>
+        <v>0.5879445262186778</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4101489084773391</v>
       </c>
       <c r="N5">
-        <v>0.04163535543068342</v>
+        <v>0.05528816372677792</v>
       </c>
       <c r="O5">
-        <v>2.95485025803444</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.845491971272537</v>
+        <v>0.04572193087938814</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.641187328619552</v>
+      </c>
+      <c r="R5">
+        <v>2.981254211048025</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05663274132534468</v>
+        <v>0.06087711405274376</v>
       </c>
       <c r="D6">
-        <v>0.03144972201189589</v>
+        <v>0.02534883414442746</v>
       </c>
       <c r="E6">
-        <v>0.03463194308714179</v>
+        <v>0.03467336522879449</v>
       </c>
       <c r="F6">
-        <v>2.249063029056799</v>
+        <v>1.858040732168718</v>
       </c>
       <c r="G6">
-        <v>2.258099337295789</v>
+        <v>1.790110427340608</v>
       </c>
       <c r="H6">
-        <v>0.003046335000579603</v>
+        <v>0.002706072395091796</v>
       </c>
       <c r="I6">
-        <v>0.001238273518052502</v>
+        <v>0.001006193514754727</v>
       </c>
       <c r="J6">
-        <v>1.309661586775462</v>
+        <v>1.120589835762388</v>
       </c>
       <c r="K6">
-        <v>1.690697406430402</v>
+        <v>1.30838711630507</v>
       </c>
       <c r="L6">
-        <v>0.05733260754919733</v>
+        <v>0.58539141594472</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4067722564947616</v>
       </c>
       <c r="N6">
-        <v>0.04150189643037905</v>
+        <v>0.05514769875829995</v>
       </c>
       <c r="O6">
-        <v>2.932231365786421</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.831542764679227</v>
+        <v>0.04573475895770418</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.621397526722248</v>
+      </c>
+      <c r="R6">
+        <v>2.966040384690331</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0587154533262364</v>
+        <v>0.06386998264952126</v>
       </c>
       <c r="D7">
-        <v>0.03254543407255994</v>
+        <v>0.02575130194408359</v>
       </c>
       <c r="E7">
-        <v>0.03533830710844388</v>
+        <v>0.0352181061881387</v>
       </c>
       <c r="F7">
-        <v>2.323489614493198</v>
+        <v>1.910047591982533</v>
       </c>
       <c r="G7">
-        <v>2.342811235911682</v>
+        <v>1.8572943493987</v>
       </c>
       <c r="H7">
-        <v>0.002300045321423028</v>
+        <v>0.002112065103448524</v>
       </c>
       <c r="I7">
-        <v>0.0009398006182816943</v>
+        <v>0.0008898464231101855</v>
       </c>
       <c r="J7">
-        <v>1.34905901185553</v>
+        <v>1.138919738785575</v>
       </c>
       <c r="K7">
-        <v>1.747414143011113</v>
+        <v>1.344476752106047</v>
       </c>
       <c r="L7">
-        <v>0.05840871473396314</v>
+        <v>0.5951653711316922</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4236069413693642</v>
       </c>
       <c r="N7">
-        <v>0.04190926819918595</v>
+        <v>0.0560623244622116</v>
       </c>
       <c r="O7">
-        <v>3.071406745056336</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2.936031259331997</v>
+        <v>0.04557595478222964</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.74041884241565</v>
+      </c>
+      <c r="R7">
+        <v>3.080193018702886</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0680091879484408</v>
+        <v>0.07743264292697916</v>
       </c>
       <c r="D8">
-        <v>0.03752004115689545</v>
+        <v>0.02780822576870534</v>
       </c>
       <c r="E8">
-        <v>0.03844450401735777</v>
+        <v>0.03765673914401901</v>
       </c>
       <c r="F8">
-        <v>2.661088231374862</v>
+        <v>2.152708133721532</v>
       </c>
       <c r="G8">
-        <v>2.726687808489316</v>
+        <v>2.148978940933915</v>
       </c>
       <c r="H8">
-        <v>0.0002824957549880658</v>
+        <v>0.0003908729506543196</v>
       </c>
       <c r="I8">
-        <v>0.001052024470864055</v>
+        <v>0.001194463934573342</v>
       </c>
       <c r="J8">
-        <v>1.528106345313091</v>
+        <v>1.248623529087155</v>
       </c>
       <c r="K8">
-        <v>2.005207561412035</v>
+        <v>1.513451235986921</v>
       </c>
       <c r="L8">
-        <v>0.06314376184062276</v>
+        <v>0.6407378334947538</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5040543890538345</v>
       </c>
       <c r="N8">
-        <v>0.04377101628261038</v>
+        <v>0.06007920970925351</v>
       </c>
       <c r="O8">
-        <v>3.68846640769965</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3.396021840539248</v>
+        <v>0.0449074173603492</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>3.272090986791255</v>
+      </c>
+      <c r="R8">
+        <v>3.580675563066876</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08717229797011328</v>
+        <v>0.1057977121986013</v>
       </c>
       <c r="D9">
-        <v>0.04755991952718119</v>
+        <v>0.03228379207164522</v>
       </c>
       <c r="E9">
-        <v>0.04453340430389208</v>
+        <v>0.04246239364274462</v>
       </c>
       <c r="F9">
-        <v>3.349145393052027</v>
+        <v>2.655827648503347</v>
       </c>
       <c r="G9">
-        <v>3.507434171967049</v>
+        <v>2.718178372119525</v>
       </c>
       <c r="H9">
-        <v>0.001714934177181382</v>
+        <v>0.0008465507858190779</v>
       </c>
       <c r="I9">
-        <v>0.007939118960100799</v>
+        <v>0.005987030735815857</v>
       </c>
       <c r="J9">
-        <v>1.893688298172123</v>
+        <v>1.513486819173409</v>
       </c>
       <c r="K9">
-        <v>2.529858986289014</v>
+        <v>1.862971034906849</v>
       </c>
       <c r="L9">
-        <v>0.07242617618373659</v>
+        <v>0.7312217676519026</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.6791856474380324</v>
       </c>
       <c r="N9">
-        <v>0.04738263580569857</v>
+        <v>0.06784898909885673</v>
       </c>
       <c r="O9">
-        <v>4.901216802213156</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4.298928780611561</v>
+        <v>0.04366347407717885</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.320437005505383</v>
+      </c>
+      <c r="R9">
+        <v>4.559431974197878</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1023379512551728</v>
+        <v>0.1276694842118999</v>
       </c>
       <c r="D10">
-        <v>0.0553664545539192</v>
+        <v>0.0352908380221173</v>
       </c>
       <c r="E10">
-        <v>0.04964213628730541</v>
+        <v>0.04642468337537586</v>
       </c>
       <c r="F10">
-        <v>3.826222026717716</v>
+        <v>2.978994641670397</v>
       </c>
       <c r="G10">
-        <v>4.052097352012112</v>
+        <v>3.147361661760073</v>
       </c>
       <c r="H10">
-        <v>0.006712733053060749</v>
+        <v>0.003966047586320354</v>
       </c>
       <c r="I10">
-        <v>0.01802235413128717</v>
+        <v>0.01272104193822532</v>
       </c>
       <c r="J10">
-        <v>2.148261652252273</v>
+        <v>1.619949086647637</v>
       </c>
       <c r="K10">
-        <v>2.891149466097218</v>
+        <v>2.084272260972995</v>
       </c>
       <c r="L10">
-        <v>0.07911468947308276</v>
+        <v>0.7809827662845947</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.8008733373766148</v>
       </c>
       <c r="N10">
-        <v>0.05117921212039533</v>
+        <v>0.07389883644393436</v>
       </c>
       <c r="O10">
-        <v>5.747292301595849</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4.98452217677692</v>
+        <v>0.04283755840414694</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>5.032694004854193</v>
+      </c>
+      <c r="R10">
+        <v>5.307191056282363</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.10971726747918</v>
+        <v>0.1398423547200167</v>
       </c>
       <c r="D11">
-        <v>0.06299591604127386</v>
+        <v>0.03911501533766426</v>
       </c>
       <c r="E11">
-        <v>0.05896323502688006</v>
+        <v>0.05494025246622947</v>
       </c>
       <c r="F11">
-        <v>3.71089313351203</v>
+        <v>2.836802274621135</v>
       </c>
       <c r="G11">
-        <v>3.962049022756219</v>
+        <v>3.147307670527226</v>
       </c>
       <c r="H11">
-        <v>0.02610864197724538</v>
+        <v>0.02291008742982115</v>
       </c>
       <c r="I11">
-        <v>0.02154481106158723</v>
+        <v>0.0151909703776747</v>
       </c>
       <c r="J11">
-        <v>2.097088643063842</v>
+        <v>1.428446470259217</v>
       </c>
       <c r="K11">
-        <v>2.804463697493148</v>
+        <v>1.982891073629133</v>
       </c>
       <c r="L11">
-        <v>0.08508010167648727</v>
+        <v>0.730939785467811</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.7768865330641859</v>
       </c>
       <c r="N11">
-        <v>0.06953639642021869</v>
+        <v>0.08509088940200726</v>
       </c>
       <c r="O11">
-        <v>5.7819795485822</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>5.451203792904948</v>
+        <v>0.04743263818106946</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>5.034097372969939</v>
+      </c>
+      <c r="R11">
+        <v>5.805370901350898</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1129470457966057</v>
+        <v>0.1454059788321587</v>
       </c>
       <c r="D12">
-        <v>0.06835051484283383</v>
+        <v>0.04244629416802326</v>
       </c>
       <c r="E12">
-        <v>0.06827220213489404</v>
+        <v>0.06373159662932615</v>
       </c>
       <c r="F12">
-        <v>3.523130129152349</v>
+        <v>2.671028285178124</v>
       </c>
       <c r="G12">
-        <v>3.782503806689419</v>
+        <v>3.042532233523673</v>
       </c>
       <c r="H12">
-        <v>0.0645007061830043</v>
+        <v>0.06136270753234641</v>
       </c>
       <c r="I12">
-        <v>0.02176948467286977</v>
+        <v>0.01532943138932552</v>
       </c>
       <c r="J12">
-        <v>2.005578557570232</v>
+        <v>1.298500500081559</v>
       </c>
       <c r="K12">
-        <v>2.665475711181912</v>
+        <v>1.868867082981481</v>
       </c>
       <c r="L12">
-        <v>0.09483881308507591</v>
+        <v>0.6855498000500404</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.737203315037732</v>
       </c>
       <c r="N12">
-        <v>0.0909517901802559</v>
+        <v>0.09915885039572103</v>
       </c>
       <c r="O12">
-        <v>5.638250440465356</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>5.702206304884498</v>
+        <v>0.05814770805894298</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>4.90001543080254</v>
+      </c>
+      <c r="R12">
+        <v>6.065196979643133</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1132620051983366</v>
+        <v>0.1475845464934764</v>
       </c>
       <c r="D13">
-        <v>0.07190292814781429</v>
+        <v>0.0458233988574932</v>
       </c>
       <c r="E13">
-        <v>0.07794091842451678</v>
+        <v>0.07342084083855482</v>
       </c>
       <c r="F13">
-        <v>3.258977567676283</v>
+        <v>2.475924686813514</v>
       </c>
       <c r="G13">
-        <v>3.512068625393994</v>
+        <v>2.826885751497429</v>
       </c>
       <c r="H13">
-        <v>0.1190461024347513</v>
+        <v>0.1163979807965063</v>
       </c>
       <c r="I13">
-        <v>0.01961308823306052</v>
+        <v>0.01399809527119711</v>
       </c>
       <c r="J13">
-        <v>1.871913162140942</v>
+        <v>1.223538492607247</v>
       </c>
       <c r="K13">
-        <v>2.468455118964442</v>
+        <v>1.735382905168734</v>
       </c>
       <c r="L13">
-        <v>0.107848643916185</v>
+        <v>0.6393110779260027</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.6824282433517936</v>
       </c>
       <c r="N13">
-        <v>0.1153532114539502</v>
+        <v>0.1160996576960471</v>
       </c>
       <c r="O13">
-        <v>5.341653845182179</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>5.802761784445522</v>
+        <v>0.07423455178234661</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>4.653491300906211</v>
+      </c>
+      <c r="R13">
+        <v>6.153513784506742</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1123300237039331</v>
+        <v>0.1478350863221891</v>
       </c>
       <c r="D14">
-        <v>0.07350818161541639</v>
+        <v>0.04825404968045888</v>
       </c>
       <c r="E14">
-        <v>0.08510028532949576</v>
+        <v>0.08093571011559675</v>
       </c>
       <c r="F14">
-        <v>3.040003834947782</v>
+        <v>2.324656735024433</v>
       </c>
       <c r="G14">
-        <v>3.281803963388256</v>
+        <v>2.627759400481523</v>
       </c>
       <c r="H14">
-        <v>0.1672508364865877</v>
+        <v>0.1650872018964122</v>
       </c>
       <c r="I14">
-        <v>0.01724378788885872</v>
+        <v>0.0125625899243218</v>
       </c>
       <c r="J14">
-        <v>1.759292044505656</v>
+        <v>1.191240247269434</v>
       </c>
       <c r="K14">
-        <v>2.30421333262052</v>
+        <v>1.63171289421048</v>
       </c>
       <c r="L14">
-        <v>0.1191319440555176</v>
+        <v>0.6057479879789369</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6370323668078726</v>
       </c>
       <c r="N14">
-        <v>0.1342212002943057</v>
+        <v>0.1299160974973432</v>
       </c>
       <c r="O14">
-        <v>5.065062972783778</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5.80547341870988</v>
+        <v>0.0886614386154676</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>4.429098713647818</v>
+      </c>
+      <c r="R14">
+        <v>6.138099946618638</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1115501395479583</v>
+        <v>0.1473948722195644</v>
       </c>
       <c r="D15">
-        <v>0.07337913670438212</v>
+        <v>0.04876456237193594</v>
       </c>
       <c r="E15">
-        <v>0.0865606055372119</v>
+        <v>0.08264344423547243</v>
       </c>
       <c r="F15">
-        <v>2.968601552531624</v>
+        <v>2.278776756640113</v>
       </c>
       <c r="G15">
-        <v>3.204227946264695</v>
+        <v>2.555848464503299</v>
       </c>
       <c r="H15">
-        <v>0.1792762911621537</v>
+        <v>0.1773135472523961</v>
       </c>
       <c r="I15">
-        <v>0.01630251187827536</v>
+        <v>0.01203850386010519</v>
       </c>
       <c r="J15">
-        <v>1.721846392282913</v>
+        <v>1.190558174473693</v>
       </c>
       <c r="K15">
-        <v>2.249924790763515</v>
+        <v>1.599848804523546</v>
       </c>
       <c r="L15">
-        <v>0.1217871408685198</v>
+        <v>0.596331713177463</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.6219741615331884</v>
       </c>
       <c r="N15">
-        <v>0.1383174741104654</v>
+        <v>0.1331373709217516</v>
       </c>
       <c r="O15">
-        <v>4.964063341954699</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>5.773991768189774</v>
+        <v>0.09228284270054132</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>4.348689260295714</v>
+      </c>
+      <c r="R15">
+        <v>6.097976660198071</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1049398439299338</v>
+        <v>0.1397559632947463</v>
       </c>
       <c r="D16">
-        <v>0.06897256153668252</v>
+        <v>0.04790175227849147</v>
       </c>
       <c r="E16">
-        <v>0.08202316104639351</v>
+        <v>0.07938519602321392</v>
       </c>
       <c r="F16">
-        <v>2.819515522658946</v>
+        <v>2.206673203294642</v>
       </c>
       <c r="G16">
-        <v>3.026733110373698</v>
+        <v>2.365236143889859</v>
       </c>
       <c r="H16">
-        <v>0.1645530963561868</v>
+        <v>0.1633561031300559</v>
       </c>
       <c r="I16">
-        <v>0.01228922377407748</v>
+        <v>0.009519252779331744</v>
       </c>
       <c r="J16">
-        <v>1.640169230506558</v>
+        <v>1.254433028205199</v>
       </c>
       <c r="K16">
-        <v>2.135804282730518</v>
+        <v>1.550503115852692</v>
       </c>
       <c r="L16">
-        <v>0.1159605527199759</v>
+        <v>0.5895207624987933</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5892333294384073</v>
       </c>
       <c r="N16">
-        <v>0.1305866636338067</v>
+        <v>0.1268106710585428</v>
       </c>
       <c r="O16">
-        <v>4.666319010917022</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>5.453471890475896</v>
+        <v>0.08931628217967358</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>4.118945289226914</v>
+      </c>
+      <c r="R16">
+        <v>5.740860992108651</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1003481061077451</v>
+        <v>0.1333724405284329</v>
       </c>
       <c r="D17">
-        <v>0.06476001799139652</v>
+        <v>0.04562714706413118</v>
       </c>
       <c r="E17">
-        <v>0.07460263984705762</v>
+        <v>0.07251121610311628</v>
       </c>
       <c r="F17">
-        <v>2.820046471543094</v>
+        <v>2.227017864760725</v>
       </c>
       <c r="G17">
-        <v>3.011492807438543</v>
+        <v>2.331640474830152</v>
       </c>
       <c r="H17">
-        <v>0.1259110313116878</v>
+        <v>0.1250237892631532</v>
       </c>
       <c r="I17">
-        <v>0.0105432433969197</v>
+        <v>0.00839165113391882</v>
       </c>
       <c r="J17">
-        <v>1.636715900269451</v>
+        <v>1.306880359011814</v>
       </c>
       <c r="K17">
-        <v>2.134288495032749</v>
+        <v>1.564283762123367</v>
       </c>
       <c r="L17">
-        <v>0.1050290818771593</v>
+        <v>0.6012293375415467</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5866321784673261</v>
       </c>
       <c r="N17">
-        <v>0.1143130826898329</v>
+        <v>0.1141421718091777</v>
       </c>
       <c r="O17">
-        <v>4.583371319695132</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>5.207469344987487</v>
+        <v>0.07874841227136642</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>4.057266663359101</v>
+      </c>
+      <c r="R17">
+        <v>5.478864365094523</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09689511359004044</v>
+        <v>0.1273384203749828</v>
       </c>
       <c r="D18">
-        <v>0.06050302138018537</v>
+        <v>0.04242093765688537</v>
       </c>
       <c r="E18">
-        <v>0.06499827542853254</v>
+        <v>0.06303202730298807</v>
       </c>
       <c r="F18">
-        <v>2.955109028384015</v>
+        <v>2.34147221486775</v>
       </c>
       <c r="G18">
-        <v>3.140394759264126</v>
+        <v>2.420713505484343</v>
       </c>
       <c r="H18">
-        <v>0.07295532331799848</v>
+        <v>0.07210657151028954</v>
       </c>
       <c r="I18">
-        <v>0.01000445334439881</v>
+        <v>0.007894963327899518</v>
       </c>
       <c r="J18">
-        <v>1.703176708691331</v>
+        <v>1.381901513591203</v>
       </c>
       <c r="K18">
-        <v>2.235117264628272</v>
+        <v>1.643788904093469</v>
       </c>
       <c r="L18">
-        <v>0.09123385195566058</v>
+        <v>0.6341416261759321</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6129905171417036</v>
       </c>
       <c r="N18">
-        <v>0.09213306859965797</v>
+        <v>0.09728457829745452</v>
       </c>
       <c r="O18">
-        <v>4.679838653120811</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4.996825585446345</v>
+        <v>0.06386720588358585</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>4.14277428349358</v>
+      </c>
+      <c r="R18">
+        <v>5.264789042921507</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09539823443174811</v>
+        <v>0.123561710670181</v>
       </c>
       <c r="D19">
-        <v>0.05625523562326862</v>
+        <v>0.03875622069329054</v>
       </c>
       <c r="E19">
-        <v>0.05593740541612746</v>
+        <v>0.05383381323260927</v>
       </c>
       <c r="F19">
-        <v>3.180178688079224</v>
+        <v>2.518901369325434</v>
       </c>
       <c r="G19">
-        <v>3.365035178337422</v>
+        <v>2.587624677923117</v>
       </c>
       <c r="H19">
-        <v>0.02824862583722165</v>
+        <v>0.02720480502711098</v>
       </c>
       <c r="I19">
-        <v>0.01087854665714882</v>
+        <v>0.008501754512852955</v>
       </c>
       <c r="J19">
-        <v>1.815480445352335</v>
+        <v>1.474727930785377</v>
       </c>
       <c r="K19">
-        <v>2.401979994471191</v>
+        <v>1.765017114006568</v>
       </c>
       <c r="L19">
-        <v>0.08042655332314474</v>
+        <v>0.6798091461230626</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6585578995907611</v>
       </c>
       <c r="N19">
-        <v>0.07016478972894191</v>
+        <v>0.08243780024535141</v>
       </c>
       <c r="O19">
-        <v>4.904672515154289</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4.836972269753574</v>
+        <v>0.05073678610994392</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>4.334672386787275</v>
+      </c>
+      <c r="R19">
+        <v>5.110004969780675</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09860963206919848</v>
+        <v>0.1242534367610446</v>
       </c>
       <c r="D20">
-        <v>0.05276829045980236</v>
+        <v>0.03453717533333034</v>
       </c>
       <c r="E20">
-        <v>0.04826348945844749</v>
+        <v>0.04547646212190326</v>
       </c>
       <c r="F20">
-        <v>3.676337750034378</v>
+        <v>2.8868121239461</v>
       </c>
       <c r="G20">
-        <v>3.880860752827971</v>
+        <v>2.990173062512127</v>
       </c>
       <c r="H20">
-        <v>0.005002249818068627</v>
+        <v>0.002901526675961552</v>
       </c>
       <c r="I20">
-        <v>0.01546397682130785</v>
+        <v>0.01147655623348509</v>
       </c>
       <c r="J20">
-        <v>2.067438523525681</v>
+        <v>1.625679954511725</v>
       </c>
       <c r="K20">
-        <v>2.773022928425121</v>
+        <v>2.017129207161759</v>
       </c>
       <c r="L20">
-        <v>0.07719728751033195</v>
+        <v>0.7648344380849608</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.7649591011151529</v>
       </c>
       <c r="N20">
-        <v>0.04969904399513325</v>
+        <v>0.0723677517694199</v>
       </c>
       <c r="O20">
-        <v>5.505555830941006</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>4.812658643846817</v>
+        <v>0.04301106592627679</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.838537981320087</v>
+      </c>
+      <c r="R20">
+        <v>5.114114529669962</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1107146862516828</v>
+        <v>0.1368912511989535</v>
       </c>
       <c r="D21">
-        <v>0.05816512869295565</v>
+        <v>0.03448437258561299</v>
       </c>
       <c r="E21">
-        <v>0.05131526622408966</v>
+        <v>0.04708301022705985</v>
       </c>
       <c r="F21">
-        <v>4.109824259428194</v>
+        <v>3.11990968421668</v>
       </c>
       <c r="G21">
-        <v>4.367785130270988</v>
+        <v>3.489338462840607</v>
       </c>
       <c r="H21">
-        <v>0.01046045983831125</v>
+        <v>0.006132349381646973</v>
       </c>
       <c r="I21">
-        <v>0.02540989453707798</v>
+        <v>0.01761370215974356</v>
       </c>
       <c r="J21">
-        <v>2.296945130363667</v>
+        <v>1.503113141525205</v>
       </c>
       <c r="K21">
-        <v>3.100829211853593</v>
+        <v>2.175262261442114</v>
       </c>
       <c r="L21">
-        <v>0.08269117259392988</v>
+        <v>0.7979901232808118</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.8556197890212616</v>
       </c>
       <c r="N21">
-        <v>0.05046780703700193</v>
+        <v>0.0759692490856736</v>
       </c>
       <c r="O21">
-        <v>6.217928782656116</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>5.313036199464364</v>
+        <v>0.04237989948524401</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.38634213712686</v>
+      </c>
+      <c r="R21">
+        <v>5.687989418892471</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1188170349848043</v>
+        <v>0.1448519475020262</v>
       </c>
       <c r="D22">
-        <v>0.06219702061049048</v>
+        <v>0.03472421219361621</v>
       </c>
       <c r="E22">
-        <v>0.05366654288854811</v>
+        <v>0.04847253768547333</v>
       </c>
       <c r="F22">
-        <v>4.387314335013201</v>
+        <v>3.260448518504205</v>
       </c>
       <c r="G22">
-        <v>4.681754789589831</v>
+        <v>3.826940895246338</v>
       </c>
       <c r="H22">
-        <v>0.01503848951906384</v>
+        <v>0.008874570856019254</v>
       </c>
       <c r="I22">
-        <v>0.03292625890873957</v>
+        <v>0.02199081802310943</v>
       </c>
       <c r="J22">
-        <v>2.444849103092395</v>
+        <v>1.409806324021162</v>
       </c>
       <c r="K22">
-        <v>3.31239899141444</v>
+        <v>2.271727956729606</v>
       </c>
       <c r="L22">
-        <v>0.08632090115497215</v>
+        <v>0.8167057837981702</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.913234975519444</v>
       </c>
       <c r="N22">
-        <v>0.05185466068206779</v>
+        <v>0.07860567271008101</v>
       </c>
       <c r="O22">
-        <v>6.671455066036685</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>5.646449612486265</v>
+        <v>0.04201511937153857</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.728038579785363</v>
+      </c>
+      <c r="R22">
+        <v>6.071539802919574</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1143332316298711</v>
+        <v>0.1404617356117441</v>
       </c>
       <c r="D23">
-        <v>0.0602558500913446</v>
+        <v>0.03494321079673313</v>
       </c>
       <c r="E23">
-        <v>0.05242805652006499</v>
+        <v>0.04780145235537159</v>
       </c>
       <c r="F23">
-        <v>4.247343893897636</v>
+        <v>3.201296558974576</v>
       </c>
       <c r="G23">
-        <v>4.523651190292242</v>
+        <v>3.63718328672627</v>
       </c>
       <c r="H23">
-        <v>0.01254478529823377</v>
+        <v>0.007405751531060378</v>
       </c>
       <c r="I23">
-        <v>0.02863144317974609</v>
+        <v>0.01936812865612492</v>
       </c>
       <c r="J23">
-        <v>2.37058804164144</v>
+        <v>1.492560679255689</v>
       </c>
       <c r="K23">
-        <v>3.207526788362671</v>
+        <v>2.23307828254508</v>
       </c>
       <c r="L23">
-        <v>0.08443676745270556</v>
+        <v>0.8112993418938004</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.8875377294401687</v>
       </c>
       <c r="N23">
-        <v>0.05131451095751061</v>
+        <v>0.07724179789692442</v>
       </c>
       <c r="O23">
-        <v>6.436373936052604</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5.465409220743936</v>
+        <v>0.04219904619399473</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.558941330624464</v>
+      </c>
+      <c r="R23">
+        <v>5.860419878376149</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09824210539468581</v>
+        <v>0.1227518433717023</v>
       </c>
       <c r="D24">
-        <v>0.05262929631160773</v>
+        <v>0.03439348757565241</v>
       </c>
       <c r="E24">
-        <v>0.04777636863850887</v>
+        <v>0.04497187044326267</v>
       </c>
       <c r="F24">
-        <v>3.711617347803525</v>
+        <v>2.915565787063713</v>
       </c>
       <c r="G24">
-        <v>3.917624273424053</v>
+        <v>3.017708676632481</v>
       </c>
       <c r="H24">
-        <v>0.005038105128950643</v>
+        <v>0.002886576189639278</v>
       </c>
       <c r="I24">
-        <v>0.01520445859231767</v>
+        <v>0.01105078218286781</v>
       </c>
       <c r="J24">
-        <v>2.085797658006328</v>
+        <v>1.642558974314966</v>
       </c>
       <c r="K24">
-        <v>2.802197979855009</v>
+        <v>2.039484618713033</v>
       </c>
       <c r="L24">
-        <v>0.07732872731321816</v>
+        <v>0.7733484645781914</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.7732740982026769</v>
       </c>
       <c r="N24">
-        <v>0.04888556502481123</v>
+        <v>0.0719287195146272</v>
       </c>
       <c r="O24">
-        <v>5.535177730722154</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4.786787351190355</v>
+        <v>0.04301196883657288</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.864172606753584</v>
+      </c>
+      <c r="R24">
+        <v>5.088339905423481</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08202058169289828</v>
+        <v>0.09911161288557224</v>
       </c>
       <c r="D25">
-        <v>0.04452347574783744</v>
+        <v>0.03102854330504456</v>
       </c>
       <c r="E25">
-        <v>0.04285388648330013</v>
+        <v>0.04118973077709676</v>
       </c>
       <c r="F25">
-        <v>3.148468603670324</v>
+        <v>2.513417614851591</v>
       </c>
       <c r="G25">
-        <v>3.279624432288131</v>
+        <v>2.542638211785828</v>
       </c>
       <c r="H25">
-        <v>0.0006574963459207162</v>
+        <v>0.0002560481871252129</v>
       </c>
       <c r="I25">
-        <v>0.005542044492946374</v>
+        <v>0.004573429716187682</v>
       </c>
       <c r="J25">
-        <v>1.786512039493772</v>
+        <v>1.453689894605844</v>
       </c>
       <c r="K25">
-        <v>2.374539437908055</v>
+        <v>1.762008811334809</v>
       </c>
       <c r="L25">
-        <v>0.06982723863255513</v>
+        <v>0.7050120286392882</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.6281708143069054</v>
       </c>
       <c r="N25">
-        <v>0.04614145728520569</v>
+        <v>0.06576911353471004</v>
       </c>
       <c r="O25">
-        <v>4.563365712878408</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.058481520666419</v>
+        <v>0.04397675693692538</v>
       </c>
       <c r="Q25">
+        <v>4.032754787393714</v>
+      </c>
+      <c r="R25">
+        <v>4.296467733259504</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
